--- a/Original/CN/Dialog/Drama/_tutorial.xlsx
+++ b/Original/CN/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="767">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -344,6 +344,15 @@
     <t xml:space="preserve">Winter Warning</t>
   </si>
   <si>
+    <t xml:space="preserve">worldend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラグナロク・ノ・刻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hour of Ragnarok</t>
+  </si>
+  <si>
     <t xml:space="preserve">jump</t>
   </si>
   <si>
@@ -381,6 +390,84 @@
   </si>
   <si>
     <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チリンチリーン！ 
+キミが冒険を開始してから…
+なんと2千年もの時が過ぎました！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tinkle-tinkle!
+Can you believe it?
+It's been two thousand years since you started your adventure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なかなか、長生きするのね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're quite the long-liver, aren't you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私？　
+…失礼ね。私はもちろん、いつまでもピチピチの妖精の乙女よ。
+妖精って、そういう生き物だから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me?
+...How rude. I'm still a sprightly fairy maiden, of course.
+That's just how fairies are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">でも大変！
+この世界も、永遠に続くわけではないの。
+滅びの時は、穏やかに迫りつつある。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But oh dear!
+This world won't last forever.
+The end draws near, gently but surely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ラグナロク・ノ・刻…
+私にも確かなことはわからない。
+だけど、4千年をこえると、この世界には綻びが生じ
+様々な異常現象が発生するといわれているわ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hour of Ragnarok...
+Even I don’t know exactly what that means.
+But it’s said that once the world surpasses four thousand years,
+it begins to unravel—strange phenomena start to appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残念ながら、この綻びを回避するすべは
+まだみつかっていないの。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadly, no way to prevent that unraveling has been found yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キミと、いつまでも冒険していたい…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to keep adventuring with you forever...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">だから…
+これからは、少しゆっくり時間を進めましょう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So...
+How about we slow things down a little from here on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">薬草みーつけた！</t>
@@ -499,15 +586,6 @@
     <t xml:space="preserve">Get it? Color-ful!</t>
   </si>
   <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
     <t xml:space="preserve">チリンチリーン！
 冬…もうすぐ冬よ！</t>
   </si>
@@ -2213,6 +2291,43 @@
     <t xml:space="preserve">冬季预警</t>
   </si>
   <si>
+    <t xml:space="preserve">世界终末之时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叮铃！ 
+自从你开始冒险后…
+居然已经过了两千年的时间！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">您还真是长寿啊？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我？　
+…真没礼貌。我当然是永远朝气蓬勃的妖精少女啊。
+所谓妖精，就是这种生物啦。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">但是不得了啦！
+这个世界也不是能永远持续下去的。
+毁灭的时刻，正在逐渐逼近。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">据说会有世界终末之时…
+我也不清楚具体的情况。
+但传闻如果经历了四千年，这个世界就会开裂。
+并发生各种异常现象。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遗憾的是，直到现在都没发现规避开裂的方法。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我想让与你的冒险永远继续下去…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所以…
+让今后的时间推进速度变慢一点吧。</t>
+  </si>
+  <si>
     <t xml:space="preserve">发现药草了！</t>
   </si>
   <si>
@@ -2230,9 +2345,9 @@
 观察一下刚才摘取的药草吧？</t>
   </si>
   <si>
-    <t xml:space="preserve">能看到带着像是【止血】这样被【】围住的效果吧？
+    <t xml:space="preserve">能看到带着像是【止血】这样被【】围住的效果对吧？
 这种效果就被称为「道具特性」
-用它们制作时，成品就会继承那个特征。</t>
+用它们进行制造时，成品就会继承那个特征。</t>
   </si>
   <si>
     <t xml:space="preserve">例如，用有止血效果、解毒效果的药草制作绷带…
@@ -2604,7 +2719,7 @@
     <t xml:space="preserve">不错，你拿到了原木呢。</t>
   </si>
   <si>
-    <t xml:space="preserve">原木老师不仅是基础的制作素材
+    <t xml:space="preserve">原木老师不仅是基础的制造素材
 还是优秀的篝火燃料呢。</t>
   </si>
   <si>
@@ -3125,7 +3240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
       <alignment/>
       <protection locked="1"/>
@@ -3168,6 +3283,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
       <protection locked="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3380,12 +3499,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H37" sqref="H37"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -3442,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" ht="12.8">
@@ -3465,7 +3584,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3495,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="12.8">
@@ -3518,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.8">
@@ -3541,7 +3660,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -3587,7 +3706,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="12.8">
@@ -3610,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -3633,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3663,7 +3782,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -3686,7 +3805,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -3732,7 +3851,7 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -3778,7 +3897,7 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -3801,7 +3920,7 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -3824,7 +3943,7 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -3847,7 +3966,7 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" ht="13.8">
@@ -3870,7 +3989,7 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" ht="13.8">
@@ -3893,7 +4012,7 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" ht="13.8">
@@ -3916,7 +4035,7 @@
         <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" ht="12.8">
@@ -3939,7 +4058,7 @@
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" ht="12.8">
@@ -3962,7 +4081,7 @@
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" ht="12.8">
@@ -3986,7 +4105,7 @@
         <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -4017,7 +4136,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4048,7 +4167,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" ht="12.8">
@@ -4072,7 +4191,7 @@
         <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4103,7 +4222,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" ht="12.8">
@@ -4127,7 +4246,7 @@
         <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" ht="12.8">
@@ -4151,7 +4270,7 @@
         <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -4182,7 +4301,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4235,7 +4354,30 @@
         <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>546</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="B38" s="1">
+        <v>990</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4254,12 +4396,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K348"/>
+  <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K347" sqref="K347"/>
-      <selection pane="bottomLeft" activeCell="I317" sqref="I317"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K359" sqref="K359"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -4278,19 +4420,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4311,20 +4453,20 @@
     <row r="2" ht="12.8">
       <c r="H2" s="1">
         <f>MAX(H4:H1048576)</f>
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" ht="12.8">
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="12.8">
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -4332,346 +4474,376 @@
     </row>
     <row r="7" ht="12.8">
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="12.8">
       <c r="D8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" ht="35.05">
       <c r="H13" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" ht="35.05">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8">
       <c r="H14" s="1">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="15" ht="35.05">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
       <c r="H15" s="1">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" ht="23.85">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" ht="35.05">
       <c r="H16" s="1">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" ht="35.05">
       <c r="H17" s="1">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" ht="34.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" ht="46.25">
       <c r="H18" s="1">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="19" ht="35.05">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" ht="22.35">
       <c r="H19" s="1">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" ht="12.8">
       <c r="H20" s="1">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>554</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="12.8">
       <c r="H21" s="1">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="J21" s="10" t="s">
+        <v>138</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" ht="12.8">
-      <c r="B22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="1"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="22" ht="23.85">
+      <c r="H22" s="1">
+        <v>229</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="23" ht="12.8">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" ht="12.8">
+      <c r="H25" s="1">
+        <v>200</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" ht="35.05">
+      <c r="H26" s="1">
+        <v>201</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" ht="35.05">
+      <c r="H27" s="1">
+        <v>202</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" ht="23.85">
+      <c r="H28" s="1">
+        <v>203</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" ht="35.05">
+      <c r="H29" s="1">
+        <v>204</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" ht="34.3">
+      <c r="H30" s="1">
+        <v>205</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" ht="35.05">
+      <c r="H31" s="1">
+        <v>206</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" ht="12.8">
+      <c r="H32" s="1">
+        <v>207</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="H33" s="1">
+        <v>208</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" ht="12.8">
+      <c r="B35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" ht="23.85">
-      <c r="H25" s="1">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" ht="23.85">
+      <c r="H37" s="1">
         <v>210</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
-      <c r="H26" s="1">
+      <c r="I37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="H38" s="1">
         <v>211</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="27" ht="12.8">
-      <c r="I27" s="4"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" ht="12.8">
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" ht="12.8">
-      <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" ht="12.8">
-      <c r="B30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="12.8">
-      <c r="A31" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="23.85">
-      <c r="H32" s="1">
-        <v>193</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K32" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="35.05">
-      <c r="H33" s="1">
-        <v>194</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K33" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="23.85">
-      <c r="H34" s="1">
-        <v>195</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="32.8">
-      <c r="H35" s="1">
-        <v>196</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="35.05">
-      <c r="H36" s="1">
-        <v>197</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K36" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="46.25">
-      <c r="H37" s="1">
-        <v>198</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="23.85">
-      <c r="H38" s="1">
-        <v>199</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K38" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="12.8">
+        <v>161</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
       <c r="I39" s="4"/>
       <c r="J39" s="10"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="12.8">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" ht="12.8">
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="12.8">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" ht="12.8">
       <c r="B41" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" ht="12.8">
       <c r="B42" s="4"/>
@@ -4681,635 +4853,530 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="12.8">
       <c r="A43" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="12.8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="23.85">
       <c r="H44" s="1">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="35.05">
       <c r="H45" s="1">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="12.8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="23.85">
       <c r="H46" s="1">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K46" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="23.85">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="32.8">
       <c r="H47" s="1">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="12.8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="35.05">
       <c r="H48" s="1">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>137</v>
+        <v>170</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="K48" t="s">
-        <v>137</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="46.25">
       <c r="H49" s="1">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="12.8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="23.85">
       <c r="H50" s="1">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>137</v>
+        <v>174</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="K50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="23.85">
-      <c r="H51" s="1">
-        <v>191</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K51" t="s">
-        <v>569</v>
-      </c>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="12.8">
+      <c r="I51" s="4"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="12.8">
-      <c r="H52" s="1">
-        <v>192</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K52" t="s">
-        <v>570</v>
-      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="12.8">
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="12.8">
-      <c r="B54" s="4" t="s">
-        <v>138</v>
-      </c>
+    <row r="54" ht="12.8">
+      <c r="B54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" ht="12.8">
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" ht="12.8">
-      <c r="A56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" ht="12.8">
-      <c r="K57" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="12.8">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="12.8">
+      <c r="H56" s="1">
+        <v>184</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="35.05">
+      <c r="H57" s="1">
+        <v>185</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K57" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="12.8">
       <c r="H58" s="1">
+        <v>186</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="23.85">
+      <c r="H59" s="1">
+        <v>187</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K59" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="12.8">
+      <c r="H60" s="1">
+        <v>188</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="46.25">
+      <c r="H61" s="1">
+        <v>189</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K61" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="12.8">
+      <c r="H62" s="1">
+        <v>190</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="23.85">
+      <c r="H63" s="1">
+        <v>191</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="12.8">
+      <c r="H64" s="1">
+        <v>192</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K64" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="12.8">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="12.8">
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" ht="12.8">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" ht="12.8">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="12.8">
+      <c r="H70" s="1">
         <v>174</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K58" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="22.35">
-      <c r="H59" s="1">
+      <c r="I70" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K70" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="22.35">
+      <c r="H71" s="1">
         <v>175</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K59" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="32.8">
-      <c r="H60" s="1">
+      <c r="I71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="32.8">
+      <c r="H72" s="1">
         <v>176</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K60" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="12.8">
-      <c r="H61" s="1">
+      <c r="I72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K72" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="12.8">
+      <c r="H73" s="1">
         <v>177</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J61" s="4" t="s">
+      <c r="I73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K73" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="32.8">
+      <c r="H74" s="1">
         <v>178</v>
       </c>
-      <c r="K61" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="32.8">
-      <c r="H62" s="1">
-        <v>178</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="I74" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="22.35">
+      <c r="H75" s="1">
         <v>179</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="I75" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="78" ht="22.35">
+      <c r="A78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" ht="12.8">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" ht="12.8">
+      <c r="H80" s="1">
         <v>180</v>
       </c>
-      <c r="K62" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="22.35">
-      <c r="H63" s="1">
-        <v>179</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="I80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" ht="35.05">
+      <c r="H81" s="1">
         <v>181</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="I81" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" ht="23.85">
+      <c r="H82" s="1">
         <v>182</v>
       </c>
-      <c r="K63" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="64" ht="12.8">
-      <c r="B64" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="66" ht="22.35">
-      <c r="A66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" ht="12.8">
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" ht="12.8">
-      <c r="H68" s="1">
-        <v>180</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="I82" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="83" ht="35.05">
+      <c r="H83" s="1">
         <v>183</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="69" ht="35.05">
-      <c r="H69" s="1">
-        <v>181</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70" ht="23.85">
-      <c r="H70" s="1">
-        <v>182</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="71" ht="35.05">
-      <c r="H71" s="1">
-        <v>183</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="72" ht="12.8">
-      <c r="B72" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="12.8">
-      <c r="A75" s="4" t="s">
+      <c r="I83" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="84" ht="12.8">
+      <c r="B84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="12.8">
+      <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12.8"/>
-    <row r="77" s="1" customFormat="1" ht="12.8">
-      <c r="H77" s="1">
+    <row r="88" s="1" customFormat="1" ht="12.8"/>
+    <row r="89" s="1" customFormat="1" ht="12.8">
+      <c r="H89" s="1">
         <v>22</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K77" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="32.8">
-      <c r="H78" s="1">
+      <c r="I89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K89" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="32.8">
+      <c r="H90" s="1">
         <v>23</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K78" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="32.8">
-      <c r="H79" s="1">
+      <c r="I90" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="32.8">
+      <c r="H91" s="1">
         <v>24</v>
       </c>
-      <c r="I79" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="K79" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="12.8">
-      <c r="H80" s="1">
+      <c r="I91" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="12.8">
+      <c r="H92" s="1">
         <v>25</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K80" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="12.8">
-      <c r="B81" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" ht="15.65" customHeight="1">
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" ht="12.8">
-      <c r="A83" s="4" t="s">
+      <c r="I92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K92" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="12.8">
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" ht="15.65" customHeight="1">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" ht="12.8">
+      <c r="A95" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" ht="23.85">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="1">
-        <v>169</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K84" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="85" ht="13.8">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="1">
-        <v>170</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="86" ht="23.85">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="1">
-        <v>171</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="87" ht="46.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="1">
-        <v>172</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="88" ht="35.05">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="1">
-        <v>173</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="89" ht="13.8">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="4"/>
-    </row>
-    <row r="90" ht="12.8">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="12.8">
-      <c r="A91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="13.8">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="1">
-        <v>155</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="23.85">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="1">
-        <v>156</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" ht="35.05">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="1">
-        <v>157</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" ht="23.85">
-      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="1">
-        <v>158</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" ht="35.05">
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" ht="23.85">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -5318,19 +5385,19 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="1">
-        <v>159</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>217</v>
+        <v>169</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="35.05">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -5339,47 +5406,61 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="1">
-        <v>160</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>219</v>
+        <v>170</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="12.8">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="98" ht="23.85">
       <c r="A98" s="4"/>
-      <c r="B98" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-    </row>
-    <row r="99" s="1" customFormat="1" ht="12.8">
-      <c r="A99" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H98" s="1">
+        <v>171</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="99" ht="46.25">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="13.8">
+      <c r="H99" s="1">
+        <v>172</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="100" ht="35.05">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -5388,19 +5469,19 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="1">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="23.85">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -5408,90 +5489,81 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="1">
-        <v>162</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="35.05">
+      <c r="I101" s="7"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" ht="12.8">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="1">
-        <v>163</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="23.85">
-      <c r="A103" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="12.8">
+      <c r="A103" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="1">
-        <v>164</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="12.8">
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="13.8">
       <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="12.8">
-      <c r="A105" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H104" s="1">
+        <v>155</v>
+      </c>
+      <c r="I104" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="23.85">
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="13.8">
+      <c r="H105" s="1">
+        <v>156</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="35.05">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5500,19 +5572,19 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="1">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="13.8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="23.85">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5521,19 +5593,19 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="1">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="23.85">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="35.05">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5542,19 +5614,19 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="1">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="23.85">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="35.05">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5563,22 +5635,22 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="1">
-        <v>168</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>233</v>
+        <v>160</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" ht="12.8">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -5591,7 +5663,7 @@
     </row>
     <row r="111" s="1" customFormat="1" ht="12.8">
       <c r="A111" s="4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5603,7 +5675,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="23.85">
+    <row r="112" s="1" customFormat="1" ht="13.8">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5612,19 +5684,19 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="1">
-        <v>116</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>235</v>
+        <v>161</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="35.05">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="23.85">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5633,19 +5705,19 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="1">
-        <v>117</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>237</v>
+        <v>162</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="46.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="35.05">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5654,19 +5726,19 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="1">
-        <v>118</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>239</v>
+        <v>163</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="1" ht="35.05">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="23.85">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5675,44 +5747,37 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="1">
-        <v>119</v>
-      </c>
-      <c r="I115" s="11" t="s">
-        <v>241</v>
+        <v>164</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="23.85">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="12.8">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="1">
-        <v>120</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>607</v>
-      </c>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="12.8">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A117" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -5722,7 +5787,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="12.8">
+    <row r="118" s="1" customFormat="1" ht="13.8">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5730,25 +5795,41 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="22.35">
-      <c r="A119" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="H118" s="1">
+        <v>165</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="13.8">
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="13.8">
+      <c r="H119" s="1">
+        <v>166</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="23.85">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -5757,19 +5838,19 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="1">
-        <v>121</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>245</v>
+        <v>167</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="35.05">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="23.85">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5778,59 +5859,45 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="1">
-        <v>122</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>248</v>
+        <v>168</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="35.05">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="12.8">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="1">
-        <v>123</v>
-      </c>
-      <c r="I122" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="23.85">
-      <c r="A123" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="12.8">
+      <c r="A123" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="1">
-        <v>124</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>611</v>
-      </c>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="23.85">
       <c r="A124" s="4"/>
@@ -5841,19 +5908,19 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="1">
-        <v>125</v>
-      </c>
-      <c r="I124" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="J124" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I124" s="12" t="s">
         <v>254</v>
       </c>
+      <c r="J124" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="K124" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="22.35">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="35.05">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5862,19 +5929,19 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="1">
-        <v>126</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J125" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" s="12" t="s">
         <v>256</v>
       </c>
+      <c r="J125" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="K125" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="12.8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="46.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5882,25 +5949,41 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="12.8">
+      <c r="H126" s="1">
+        <v>118</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="35.05">
       <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="12.8">
+      <c r="H127" s="1">
+        <v>119</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="23.85">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5908,15 +5991,24 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="22.35">
-      <c r="A129" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B129" s="4"/>
+      <c r="H128" s="1">
+        <v>120</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="12.8">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -5926,7 +6018,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="23.85">
+    <row r="130" s="1" customFormat="1" ht="12.8">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5934,41 +6026,25 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="1">
-        <v>127</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="23.85">
-      <c r="A131" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="22.35">
+      <c r="A131" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="1">
-        <v>128</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="12.8">
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="13.8">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -5976,25 +6052,41 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="12.8">
+      <c r="H132" s="1">
+        <v>121</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="35.05">
       <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="12.8">
+      <c r="H133" s="1">
+        <v>122</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="35.05">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6002,25 +6094,41 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="12.8">
-      <c r="A135" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="H134" s="1">
+        <v>123</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="23.85">
+      <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="13.8">
+      <c r="H135" s="1">
+        <v>124</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="23.85">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6029,19 +6137,19 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="1">
-        <v>129</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="J136" s="10" t="s">
-        <v>262</v>
+        <v>125</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="23.85">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="22.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6050,19 +6158,19 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="1">
-        <v>130</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>263</v>
+        <v>126</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="23.85">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="12.8">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6070,41 +6178,25 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="1">
-        <v>131</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="1" ht="23.85">
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="12.8">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="1">
-        <v>132</v>
-      </c>
-      <c r="I139" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="140" s="1" customFormat="1" ht="35.05">
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="12.8">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6112,39 +6204,23 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="1">
-        <v>133</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" ht="35.05">
-      <c r="A141" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="22.35">
+      <c r="A141" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="1">
-        <v>134</v>
-      </c>
-      <c r="I141" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="J141" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>621</v>
-      </c>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
     </row>
     <row r="142" s="1" customFormat="1" ht="23.85">
       <c r="A142" s="4"/>
@@ -6155,16 +6231,16 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="1">
-        <v>135</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>274</v>
+        <v>127</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J142" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" ht="23.85">
@@ -6176,23 +6252,21 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1">
-        <v>136</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>275</v>
+        <v>128</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" ht="12.8">
       <c r="A144" s="4"/>
-      <c r="B144" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -6204,7 +6278,9 @@
     </row>
     <row r="145" s="1" customFormat="1" ht="12.8">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -6215,9 +6291,7 @@
       <c r="K145" s="4"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="12.8">
-      <c r="A146" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -6228,26 +6302,19 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
-    <row r="147" s="1" customFormat="1" ht="23.85">
-      <c r="A147" s="4"/>
+    <row r="147" s="1" customFormat="1" ht="12.8">
+      <c r="A147" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="1">
-        <v>137</v>
-      </c>
-      <c r="I147" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>624</v>
-      </c>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="13.8">
       <c r="A148" s="4"/>
@@ -6258,19 +6325,19 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="1">
-        <v>138</v>
-      </c>
-      <c r="I148" s="11" t="s">
-        <v>279</v>
+        <v>129</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="J148" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="13.8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="23.85">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -6279,19 +6346,19 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="1">
-        <v>139</v>
-      </c>
-      <c r="I149" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="J149" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I149" s="12" t="s">
         <v>282</v>
       </c>
+      <c r="J149" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="K149" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="35.05">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="23.85">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6300,16 +6367,16 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="1">
-        <v>140</v>
-      </c>
-      <c r="I150" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="J150" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I150" s="12" t="s">
         <v>284</v>
       </c>
+      <c r="J150" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="K150" s="4" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" ht="23.85">
@@ -6321,16 +6388,16 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="1">
-        <v>141</v>
-      </c>
-      <c r="I151" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="J151" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I151" s="12" t="s">
         <v>286</v>
       </c>
+      <c r="J151" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="K151" s="4" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" ht="35.05">
@@ -6342,47 +6409,61 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1">
-        <v>142</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J152" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I152" s="12" t="s">
         <v>288</v>
       </c>
+      <c r="J152" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="K152" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="12.8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="35.05">
       <c r="A153" s="4"/>
-      <c r="B153" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="12.8">
-      <c r="A154" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="H153" s="1">
+        <v>134</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="23.85">
+      <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="13.8">
+      <c r="H154" s="1">
+        <v>135</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="23.85">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -6391,40 +6472,33 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1">
-        <v>143</v>
-      </c>
-      <c r="I155" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>290</v>
+        <v>136</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="35.05">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="12.8">
       <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="1">
-        <v>144</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="35.05">
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="12.8">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -6432,41 +6506,25 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="1">
-        <v>145</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="35.05">
-      <c r="A158" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="12.8">
+      <c r="A158" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="1">
-        <v>146</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J158" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="K158" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="46.25">
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="23.85">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6475,19 +6533,19 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="1">
-        <v>147</v>
-      </c>
-      <c r="I159" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J159" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="K159" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="12.8">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="13.8">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -6495,11 +6553,20 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="12.8">
+      <c r="H160" s="1">
+        <v>138</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="13.8">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -6507,39 +6574,62 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="12.8">
+      <c r="H161" s="1">
+        <v>139</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J161" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="35.05">
       <c r="A162" s="4"/>
-      <c r="B162" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="12.8">
-      <c r="A163" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="H162" s="1">
+        <v>140</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J162" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="23.85">
+      <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="12.8">
+      <c r="H163" s="1">
+        <v>141</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="35.05">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6548,61 +6638,47 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1">
-        <v>148</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>299</v>
+        <v>142</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="J164" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" ht="12.8">
       <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="1">
-        <v>149</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="32.8">
-      <c r="A166" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="12.8">
+      <c r="A166" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="1">
-        <v>150</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="32.8">
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="13.8">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6611,19 +6687,19 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1">
-        <v>151</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>306</v>
+        <v>143</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="43.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="35.05">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6632,19 +6708,19 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="1">
-        <v>152</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>307</v>
+        <v>144</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="32.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="35.05">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6653,19 +6729,19 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="1">
-        <v>153</v>
-      </c>
-      <c r="I169" s="4" t="s">
-        <v>309</v>
+        <v>145</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="170" ht="32.8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="35.05">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6674,1797 +6750,2017 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="1">
-        <v>154</v>
-      </c>
-      <c r="I170" s="4" t="s">
-        <v>311</v>
+        <v>146</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="12.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="46.25">
       <c r="A171" s="4"/>
-      <c r="B171" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
+      <c r="H171" s="1">
+        <v>147</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="172" s="1" customFormat="1" ht="12.8">
+      <c r="A172" s="4"/>
       <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" s="1" customFormat="1" ht="12.8">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="12.8">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="12.8">
+      <c r="A175" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="12.8">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="1">
+        <v>148</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="12.8">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="1">
+        <v>149</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="32.8">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="1">
+        <v>150</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="32.8">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="1">
+        <v>151</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="43.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="1">
+        <v>152</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="32.8">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="1">
+        <v>153</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="182" ht="32.8">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="1">
+        <v>154</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="12.8">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="12.8">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="12.8">
+      <c r="A185" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" s="1" customFormat="1" ht="12.8"/>
-    <row r="175" s="1" customFormat="1" ht="12.8">
-      <c r="H175" s="1">
+    <row r="186" s="1" customFormat="1" ht="12.8"/>
+    <row r="187" s="1" customFormat="1" ht="12.8">
+      <c r="H187" s="1">
         <v>105</v>
       </c>
-      <c r="I175" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J175" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="K175" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="22.35">
-      <c r="H176" s="1">
+      <c r="I187" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K187" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="22.35">
+      <c r="H188" s="1">
         <v>106</v>
       </c>
-      <c r="I176" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K176" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="32.8">
-      <c r="H177" s="1">
+      <c r="I188" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K188" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="32.8">
+      <c r="H189" s="1">
         <v>107</v>
       </c>
-      <c r="I177" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="K177" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="32.8">
-      <c r="H178" s="1">
+      <c r="I189" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K189" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="32.8">
+      <c r="H190" s="1">
         <v>108</v>
       </c>
-      <c r="I178" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K178" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="22.35">
-      <c r="H179" s="1">
+      <c r="I190" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K190" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="22.35">
+      <c r="H191" s="1">
         <v>109</v>
       </c>
-      <c r="I179" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="K179" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="12.8">
-      <c r="B180" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="12.8">
-      <c r="A181" s="4" t="s">
+      <c r="I191" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K191" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="12.8">
+      <c r="B192" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="12.8">
+      <c r="A193" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" ht="12.8"/>
-    <row r="183" s="1" customFormat="1" ht="12.8">
-      <c r="H183" s="1">
+    <row r="194" s="1" customFormat="1" ht="12.8"/>
+    <row r="195" s="1" customFormat="1" ht="12.8">
+      <c r="H195" s="1">
         <v>110</v>
       </c>
-      <c r="I183" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="J183" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="K183" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23.85">
-      <c r="H184" s="1">
+      <c r="I195" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J195" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="K195" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23.85">
+      <c r="H196" s="1">
         <v>111</v>
       </c>
-      <c r="I184" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J184" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K184" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23.85">
-      <c r="H185" s="1">
+      <c r="I196" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K196" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23.85">
+      <c r="H197" s="1">
         <v>112</v>
       </c>
-      <c r="I185" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J185" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K185" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="46.25">
-      <c r="H186" s="1">
+      <c r="I197" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J197" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K197" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="46.25">
+      <c r="H198" s="1">
         <v>113</v>
       </c>
-      <c r="I186" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J186" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="K186" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23.85">
-      <c r="H187" s="1">
+      <c r="I198" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J198" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K198" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23.85">
+      <c r="H199" s="1">
         <v>114</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K187" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="188" ht="23.85">
-      <c r="H188" s="1">
+      <c r="I199" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="K199" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="200" ht="23.85">
+      <c r="H200" s="1">
         <v>115</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J188" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="12.8">
-      <c r="B189" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="12.8">
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="22.35">
-      <c r="A191" s="4" t="s">
+      <c r="I200" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="12.8">
+      <c r="B201" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="12.8">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="22.35">
+      <c r="A203" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="12.8"/>
-    <row r="193" s="1" customFormat="1" ht="12.8">
-      <c r="H193" s="1">
+    <row r="204" s="1" customFormat="1" ht="12.8"/>
+    <row r="205" s="1" customFormat="1" ht="12.8">
+      <c r="H205" s="1">
         <v>26</v>
       </c>
-      <c r="I193" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J193" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="K193" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="32.8">
-      <c r="H194" s="1">
+      <c r="I205" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="32.8">
+      <c r="H206" s="1">
         <v>27</v>
       </c>
-      <c r="I194" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K194" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="22.35">
-      <c r="H195" s="1">
+      <c r="I206" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K206" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="22.35">
+      <c r="H207" s="1">
         <v>28</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K195" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="64.15">
-      <c r="H196" s="1">
+      <c r="I207" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K207" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="64.15">
+      <c r="H208" s="1">
         <v>29</v>
       </c>
-      <c r="I196" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J196" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K196" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="32.8">
-      <c r="H197" s="1">
+      <c r="I208" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K208" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="32.8">
+      <c r="H209" s="1">
         <v>30</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K197" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="12.8">
-      <c r="H198" s="1">
+      <c r="I209" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K209" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="12.8">
+      <c r="H210" s="1">
         <v>31</v>
       </c>
-      <c r="I198" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J198" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="K198" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="12.8">
-      <c r="H199" s="1">
+      <c r="I210" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K210" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="12.8">
+      <c r="H211" s="1">
         <v>32</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K199" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="22.35">
-      <c r="H200" s="1">
+      <c r="I211" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K211" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="22.35">
+      <c r="H212" s="1">
         <v>33</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K200" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="201" ht="12.8">
-      <c r="H201" s="1">
+      <c r="I212" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K212" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="213" ht="12.8">
+      <c r="H213" s="1">
         <v>34</v>
       </c>
-      <c r="I201" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="202" ht="12.8">
-      <c r="B202" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" ht="15.65" customHeight="1"/>
-    <row r="204" ht="15.65" customHeight="1"/>
-    <row r="205" ht="15.65" customHeight="1"/>
-    <row r="206" ht="12.8">
-      <c r="A206" s="1" t="s">
+      <c r="I213" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="214" ht="12.8">
+      <c r="B214" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" ht="15.65" customHeight="1"/>
+    <row r="216" ht="15.65" customHeight="1"/>
+    <row r="217" ht="15.65" customHeight="1"/>
+    <row r="218" ht="12.8">
+      <c r="A218" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="208" ht="12.8">
-      <c r="H208" s="1">
+    <row r="220" ht="12.8">
+      <c r="H220" s="1">
         <v>35</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J208" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="K208" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="209" ht="12.8">
-      <c r="B209" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H209" s="1">
+      <c r="I220" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="K220" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="221" ht="12.8">
+      <c r="B221" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H221" s="1">
         <v>36</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J209" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K209" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="210" ht="12.8">
-      <c r="B210" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H210" s="1">
+      <c r="I221" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K221" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="222" ht="12.8">
+      <c r="B222" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H222" s="1">
         <v>37</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J210" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="K210" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="211" ht="12.8">
-      <c r="I211" s="4"/>
-      <c r="J211" s="10"/>
-    </row>
-    <row r="212" ht="12.8">
-      <c r="A212" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I212" s="4"/>
-      <c r="J212" s="10"/>
-    </row>
-    <row r="213" ht="22.35">
-      <c r="H213" s="1">
+      <c r="I222" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K222" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="223" ht="12.8">
+      <c r="I223" s="4"/>
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" ht="12.8">
+      <c r="A224" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" ht="22.35">
+      <c r="H225" s="1">
         <v>38</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="K213" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="214" s="1" customFormat="1" ht="22.35">
-      <c r="H214" s="1">
+      <c r="I225" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K225" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="226" s="1" customFormat="1" ht="22.35">
+      <c r="H226" s="1">
         <v>39</v>
       </c>
-      <c r="I214" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="K214" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="215" ht="22.35">
-      <c r="H215" s="1">
+      <c r="I226" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K226" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="227" ht="22.35">
+      <c r="H227" s="1">
         <v>40</v>
       </c>
-      <c r="I215" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J215" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K215" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="216" ht="22.35">
-      <c r="H216" s="1">
+      <c r="I227" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K227" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="228" ht="22.35">
+      <c r="H228" s="1">
         <v>41</v>
       </c>
-      <c r="I216" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="217" ht="22.35">
-      <c r="H217" s="1">
+      <c r="I228" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="229" ht="22.35">
+      <c r="H229" s="1">
         <v>42</v>
       </c>
-      <c r="I217" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J217" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K217" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="218" ht="32.8">
-      <c r="H218" s="1">
+      <c r="I229" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K229" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="230" ht="32.8">
+      <c r="H230" s="1">
         <v>43</v>
       </c>
-      <c r="I218" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="K218" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="219" ht="12.8">
-      <c r="B219" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J219" s="4"/>
-    </row>
-    <row r="220" ht="12.8">
-      <c r="A220" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" ht="12.8">
-      <c r="H221" s="1">
+      <c r="I230" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K230" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="231" ht="12.8">
+      <c r="B231" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" ht="12.8">
+      <c r="A232" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J232" s="4"/>
+    </row>
+    <row r="233" ht="12.8">
+      <c r="H233" s="1">
         <v>44</v>
       </c>
-      <c r="I221" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="K221" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="222" s="1" customFormat="1" ht="12.8">
-      <c r="B222" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="223" s="1" customFormat="1" ht="12.8"/>
-    <row r="224" s="1" customFormat="1" ht="12.8">
-      <c r="A224" s="4" t="s">
+      <c r="I233" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J233" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="K233" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="1" ht="12.8">
+      <c r="B234" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="1" ht="12.8"/>
+    <row r="236" s="1" customFormat="1" ht="12.8">
+      <c r="A236" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" s="1" customFormat="1" ht="23.85">
-      <c r="H225" s="1">
+    <row r="237" s="1" customFormat="1" ht="23.85">
+      <c r="H237" s="1">
         <v>93</v>
       </c>
-      <c r="I225" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J225" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K225" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="32.8">
-      <c r="H226" s="1">
+      <c r="I237" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="K237" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" ht="32.8">
+      <c r="H238" s="1">
         <v>94</v>
       </c>
-      <c r="I226" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="K226" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="227" s="1" customFormat="1" ht="32.8">
-      <c r="H227" s="1">
+      <c r="I238" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K238" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" ht="32.8">
+      <c r="H239" s="1">
         <v>95</v>
       </c>
-      <c r="I227" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K227" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="228" s="1" customFormat="1" ht="32.8">
-      <c r="H228" s="1">
+      <c r="I239" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K239" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="1" ht="32.8">
+      <c r="H240" s="1">
         <v>96</v>
       </c>
-      <c r="I228" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="K228" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="229" s="1" customFormat="1" ht="12.8">
-      <c r="H229" s="1">
+      <c r="I240" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K240" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" ht="12.8">
+      <c r="H241" s="1">
         <v>97</v>
       </c>
-      <c r="I229" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K229" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="230" s="1" customFormat="1" ht="12.8">
-      <c r="H230" s="1">
+      <c r="I241" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K241" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="1" ht="12.8">
+      <c r="H242" s="1">
         <v>98</v>
       </c>
-      <c r="I230" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K230" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="231" s="1" customFormat="1" ht="32.8">
-      <c r="H231" s="1">
+      <c r="I242" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K242" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="1" ht="32.8">
+      <c r="H243" s="1">
         <v>99</v>
       </c>
-      <c r="I231" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="J231" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="K231" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="232" s="1" customFormat="1" ht="12.8">
-      <c r="I232" s="4"/>
-      <c r="J232" s="4"/>
-    </row>
-    <row r="233" s="1" customFormat="1" ht="12.8">
-      <c r="B233" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="234" s="1" customFormat="1" ht="12.8">
-      <c r="A234" s="4" t="s">
+      <c r="I243" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K243" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" ht="12.8">
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" s="1" customFormat="1" ht="12.8">
+      <c r="B245" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="1" ht="12.8">
+      <c r="A246" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="235" s="1" customFormat="1" ht="23.85">
-      <c r="H235" s="1">
+    <row r="247" s="1" customFormat="1" ht="23.85">
+      <c r="H247" s="1">
         <v>100</v>
       </c>
-      <c r="I235" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="K235" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="236" s="1" customFormat="1" ht="43.25">
-      <c r="H236" s="1">
-        <v>101</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="K236" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="237" s="1" customFormat="1" ht="32.8">
-      <c r="H237" s="1">
-        <v>102</v>
-      </c>
-      <c r="I237" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="J237" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="K237" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="238" s="1" customFormat="1" ht="22.35">
-      <c r="H238" s="1">
-        <v>103</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="K238" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="239" s="1" customFormat="1" ht="12.8">
-      <c r="H239" s="1">
-        <v>104</v>
-      </c>
-      <c r="I239" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="K239" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="1" ht="12.8">
-      <c r="I240" s="4"/>
-      <c r="J240" s="4"/>
-    </row>
-    <row r="241" s="1" customFormat="1" ht="12.8">
-      <c r="B241" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="242" s="1" customFormat="1" ht="12.8">
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" s="1" customFormat="1" ht="12.8">
-      <c r="A243" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="244" s="1" customFormat="1" ht="12.8">
-      <c r="H244" s="1">
-        <v>79</v>
-      </c>
-      <c r="I244" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K244" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="245" s="1" customFormat="1" ht="12.8">
-      <c r="H245" s="1">
-        <v>80</v>
-      </c>
-      <c r="I245" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="K245" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="246" s="1" customFormat="1" ht="43.25">
-      <c r="H246" s="1">
-        <v>81</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="K246" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="247" s="1" customFormat="1" ht="22.35">
-      <c r="H247" s="1">
-        <v>82</v>
-      </c>
       <c r="I247" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J247" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="K247" t="s">
-        <v>684</v>
+        <v>705</v>
       </c>
     </row>
     <row r="248" s="1" customFormat="1" ht="43.25">
       <c r="H248" s="1">
+        <v>101</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K248" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="1" ht="32.8">
+      <c r="H249" s="1">
+        <v>102</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K249" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" ht="22.35">
+      <c r="H250" s="1">
+        <v>103</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K250" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="12.8">
+      <c r="H251" s="1">
+        <v>104</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K251" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="12.8">
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="12.8">
+      <c r="B253" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="12.8">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="12.8">
+      <c r="A255" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="12.8">
+      <c r="H256" s="1">
+        <v>79</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" ht="12.8">
+      <c r="H257" s="1">
+        <v>80</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K257" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="43.25">
+      <c r="H258" s="1">
+        <v>81</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="K258" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="1" ht="22.35">
+      <c r="H259" s="1">
+        <v>82</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="K259" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="1" ht="43.25">
+      <c r="H260" s="1">
         <v>83</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K248" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="249" s="1" customFormat="1" ht="12.8">
-      <c r="H249" s="1">
+      <c r="I260" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K260" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" ht="12.8">
+      <c r="H261" s="1">
         <v>84</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K249" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="250" ht="12.8">
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
-      <c r="K250" s="1"/>
-    </row>
-    <row r="251" ht="12.8">
-      <c r="B251" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" ht="12.8">
-      <c r="B252" s="4"/>
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" ht="12.8">
-      <c r="A253" s="4" t="s">
+      <c r="I261" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K261" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="262" ht="12.8">
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" ht="12.8">
+      <c r="B263" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" ht="12.8">
+      <c r="B264" s="4"/>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" ht="12.8">
+      <c r="A265" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" ht="12.8">
-      <c r="H254" s="1">
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" ht="12.8">
+      <c r="H266" s="1">
         <v>85</v>
       </c>
-      <c r="I254" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K254" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="255" ht="22.35">
-      <c r="H255" s="1">
+      <c r="I266" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="267" ht="22.35">
+      <c r="H267" s="1">
         <v>86</v>
       </c>
-      <c r="I255" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K255" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="256" ht="22.35">
-      <c r="H256" s="1">
-        <v>87</v>
-      </c>
-      <c r="I256" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K256" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="257" ht="43.25">
-      <c r="H257" s="1">
-        <v>88</v>
-      </c>
-      <c r="I257" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="258" ht="32.8">
-      <c r="H258" s="1">
-        <v>89</v>
-      </c>
-      <c r="I258" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="259" ht="22.35">
-      <c r="H259" s="1">
-        <v>90</v>
-      </c>
-      <c r="I259" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="260" ht="22.35">
-      <c r="H260" s="1">
-        <v>91</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="261" ht="12.8">
-      <c r="H261" s="1">
-        <v>92</v>
-      </c>
-      <c r="I261" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="262" ht="12.8">
-      <c r="B262" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="264" ht="12.8">
-      <c r="A264" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" ht="12.8">
-      <c r="H265" s="1">
-        <v>74</v>
-      </c>
-      <c r="I265" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J265" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="266" ht="32.8">
-      <c r="H266" s="1">
-        <v>75</v>
-      </c>
-      <c r="I266" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J266" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="267" ht="43.25">
-      <c r="H267" s="1">
-        <v>76</v>
-      </c>
       <c r="I267" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
     </row>
     <row r="268" ht="22.35">
       <c r="H268" s="1">
+        <v>87</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="269" ht="43.25">
+      <c r="H269" s="1">
+        <v>88</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="270" ht="32.8">
+      <c r="H270" s="1">
+        <v>89</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="271" ht="22.35">
+      <c r="H271" s="1">
+        <v>90</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="272" ht="22.35">
+      <c r="H272" s="1">
+        <v>91</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="273" ht="12.8">
+      <c r="H273" s="1">
+        <v>92</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="274" ht="12.8">
+      <c r="B274" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="276" ht="12.8">
+      <c r="A276" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" ht="12.8">
+      <c r="H277" s="1">
+        <v>74</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="278" ht="32.8">
+      <c r="H278" s="1">
+        <v>75</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="279" ht="43.25">
+      <c r="H279" s="1">
+        <v>76</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="280" ht="22.35">
+      <c r="H280" s="1">
         <v>77</v>
       </c>
-      <c r="I268" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="269" ht="32.8">
-      <c r="H269" s="1">
+      <c r="I280" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="281" ht="32.8">
+      <c r="H281" s="1">
         <v>78</v>
       </c>
-      <c r="I269" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="270" ht="12.8">
-      <c r="I270" s="4"/>
-      <c r="J270" s="4"/>
-      <c r="K270" s="1"/>
-    </row>
-    <row r="271" ht="12.8">
-      <c r="I271" s="4"/>
-      <c r="J271" s="4"/>
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" s="1" customFormat="1" ht="12.8">
-      <c r="B272" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="273" s="1" customFormat="1" ht="12.8"/>
-    <row r="274" s="1" customFormat="1" ht="12.8">
-      <c r="A274" s="4" t="s">
+      <c r="I281" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="282" ht="12.8">
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" ht="12.8">
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" s="1" customFormat="1" ht="12.8">
+      <c r="B284" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="285" s="1" customFormat="1" ht="12.8"/>
+    <row r="286" s="1" customFormat="1" ht="12.8">
+      <c r="A286" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" ht="23.85">
-      <c r="H275" s="1">
+    <row r="287" s="1" customFormat="1" ht="23.85">
+      <c r="H287" s="1">
         <v>66</v>
       </c>
-      <c r="I275" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J275" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="K275" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="276" s="1" customFormat="1" ht="22.35">
-      <c r="H276" s="1">
-        <v>67</v>
-      </c>
-      <c r="I276" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K276" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="277" s="1" customFormat="1" ht="12.8">
-      <c r="H277" s="1">
-        <v>68</v>
-      </c>
-      <c r="I277" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J277" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K277" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="278" s="1" customFormat="1" ht="22.35">
-      <c r="H278" s="1">
-        <v>69</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K278" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="279" s="1" customFormat="1" ht="32.8">
-      <c r="H279" s="1">
-        <v>70</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K279" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="280" s="1" customFormat="1" ht="32.8">
-      <c r="H280" s="1">
-        <v>71</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="K280" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="281" s="1" customFormat="1" ht="22.35">
-      <c r="H281" s="1">
-        <v>72</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K281" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="282" s="1" customFormat="1" ht="22.35">
-      <c r="H282" s="1">
-        <v>73</v>
-      </c>
-      <c r="I282" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J282" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="K282" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="283" s="1" customFormat="1" ht="12.8">
-      <c r="B283" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="284" s="1" customFormat="1" ht="12.8">
-      <c r="A284" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="285" s="1" customFormat="1" ht="12.8">
-      <c r="H285" s="1">
-        <v>60</v>
-      </c>
-      <c r="I285" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="J285" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="K285" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="286" s="1" customFormat="1" ht="43.25">
-      <c r="H286" s="1">
-        <v>61</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="J286" s="4" t="s">
+      <c r="I287" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="K286" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="287" s="1" customFormat="1" ht="22.35">
-      <c r="H287" s="1">
-        <v>62</v>
-      </c>
-      <c r="I287" s="4" t="s">
+      <c r="J287" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="K287" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
     </row>
     <row r="288" s="1" customFormat="1" ht="22.35">
       <c r="H288" s="1">
+        <v>67</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K288" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" ht="12.8">
+      <c r="H289" s="1">
+        <v>68</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K289" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" ht="22.35">
+      <c r="H290" s="1">
+        <v>69</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K290" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" ht="32.8">
+      <c r="H291" s="1">
+        <v>70</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="K291" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" ht="32.8">
+      <c r="H292" s="1">
+        <v>71</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="K292" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" ht="22.35">
+      <c r="H293" s="1">
+        <v>72</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="K293" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" ht="22.35">
+      <c r="H294" s="1">
+        <v>73</v>
+      </c>
+      <c r="I294" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="K294" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" ht="12.8">
+      <c r="B295" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" ht="12.8">
+      <c r="A296" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" ht="12.8">
+      <c r="H297" s="1">
+        <v>60</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="J297" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="K297" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" ht="43.25">
+      <c r="H298" s="1">
+        <v>61</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K298" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" ht="22.35">
+      <c r="H299" s="1">
+        <v>62</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="K299" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="1" ht="22.35">
+      <c r="H300" s="1">
         <v>63</v>
       </c>
-      <c r="I288" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="K288" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="289" s="1" customFormat="1" ht="22.35">
-      <c r="H289" s="1">
+      <c r="I300" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K300" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="1" ht="22.35">
+      <c r="H301" s="1">
         <v>64</v>
       </c>
-      <c r="I289" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="K289" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="290" ht="32.8">
-      <c r="H290" s="1">
+      <c r="I301" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="K301" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="302" ht="32.8">
+      <c r="H302" s="1">
         <v>65</v>
       </c>
-      <c r="I290" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="K290" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="291" ht="12.8">
-      <c r="B291" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K291" s="1"/>
-    </row>
-    <row r="292" s="1" customFormat="1" ht="12.8"/>
-    <row r="293" s="1" customFormat="1" ht="12.8"/>
-    <row r="294" s="1" customFormat="1" ht="12.8">
-      <c r="A294" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="295" s="1" customFormat="1" ht="23.85">
-      <c r="H295" s="1">
-        <v>53</v>
-      </c>
-      <c r="I295" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="J295" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K295" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="296" s="1" customFormat="1" ht="23.85">
-      <c r="H296" s="1">
-        <v>54</v>
-      </c>
-      <c r="I296" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="J296" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="K296" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="297" s="1" customFormat="1" ht="23.85">
-      <c r="H297" s="1">
-        <v>55</v>
-      </c>
-      <c r="I297" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="K297" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="1" ht="23.85">
-      <c r="H298" s="1">
-        <v>56</v>
-      </c>
-      <c r="I298" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="J298" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="K298" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="1" ht="12.8">
-      <c r="H299" s="1">
-        <v>57</v>
-      </c>
-      <c r="I299" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J299" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K299" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="1" ht="35.05">
-      <c r="H300" s="1">
-        <v>58</v>
-      </c>
-      <c r="I300" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="J300" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="K300" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="301" ht="12.8">
-      <c r="H301" s="1">
-        <v>59</v>
-      </c>
-      <c r="I301" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J301" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K301" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="302" ht="12.8">
-      <c r="B302" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K302" s="1"/>
+      <c r="I302" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="303" ht="12.8">
+      <c r="B303" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K303" s="1"/>
     </row>
     <row r="304" s="1" customFormat="1" ht="12.8"/>
     <row r="305" s="1" customFormat="1" ht="12.8"/>
     <row r="306" s="1" customFormat="1" ht="12.8">
       <c r="A306" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" ht="23.85">
+      <c r="H307" s="1">
+        <v>53</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J307" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="K307" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" ht="23.85">
+      <c r="H308" s="1">
+        <v>54</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J308" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="K308" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" ht="23.85">
+      <c r="H309" s="1">
+        <v>55</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J309" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="K309" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" ht="23.85">
+      <c r="H310" s="1">
+        <v>56</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="K310" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" ht="12.8">
+      <c r="H311" s="1">
+        <v>57</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K311" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" ht="35.05">
+      <c r="H312" s="1">
+        <v>58</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K312" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="313" ht="12.8">
+      <c r="H313" s="1">
+        <v>59</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="314" ht="12.8">
+      <c r="B314" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="316" s="1" customFormat="1" ht="12.8"/>
+    <row r="317" s="1" customFormat="1" ht="12.8"/>
+    <row r="318" s="1" customFormat="1" ht="12.8">
+      <c r="A318" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" ht="12.8">
-      <c r="H307" s="1">
+    <row r="319" s="1" customFormat="1" ht="12.8">
+      <c r="H319" s="1">
         <v>45</v>
       </c>
-      <c r="I307" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="J307" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="K307" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="308" s="1" customFormat="1" ht="22.35">
-      <c r="H308" s="1">
+      <c r="I319" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J319" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K319" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="320" s="1" customFormat="1" ht="22.35">
+      <c r="H320" s="1">
         <v>46</v>
       </c>
-      <c r="I308" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J308" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="K308" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="1" ht="32.8">
-      <c r="H309" s="1">
+      <c r="I320" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K320" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" ht="32.8">
+      <c r="H321" s="1">
         <v>50</v>
       </c>
-      <c r="I309" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J309" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="K309" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="310" s="1" customFormat="1" ht="35.05">
-      <c r="H310" s="1">
+      <c r="I321" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K321" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" ht="35.05">
+      <c r="H322" s="1">
         <v>47</v>
       </c>
-      <c r="I310" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="K310" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="1" ht="43.25">
-      <c r="H311" s="1">
+      <c r="I322" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K322" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" ht="43.25">
+      <c r="H323" s="1">
         <v>48</v>
       </c>
-      <c r="I311" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J311" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K311" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="312" ht="22.35">
-      <c r="H312" s="1">
+      <c r="I323" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K323" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="324" ht="22.35">
+      <c r="H324" s="1">
         <v>49</v>
       </c>
-      <c r="I312" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="K312" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="313" ht="12.8">
-      <c r="B313" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K313" s="1"/>
-    </row>
-    <row r="314" s="1" customFormat="1" ht="12.8"/>
-    <row r="315" s="1" customFormat="1" ht="12.8"/>
-    <row r="316" s="1" customFormat="1" ht="12.8">
-      <c r="A316" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="317" s="1" customFormat="1" ht="22.35">
-      <c r="H317" s="1">
-        <v>1</v>
-      </c>
-      <c r="I317" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J317" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="K317" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="318" s="1" customFormat="1" ht="22.35">
-      <c r="H318" s="1">
-        <v>2</v>
-      </c>
-      <c r="I318" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="J318" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="K318" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="319" s="1" customFormat="1" ht="32.8">
-      <c r="H319" s="1">
-        <v>5</v>
-      </c>
-      <c r="I319" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="J319" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="K319" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="1" ht="43.25">
-      <c r="H320" s="1">
-        <v>6</v>
-      </c>
-      <c r="I320" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="K320" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="1" ht="43.25">
-      <c r="H321" s="1">
-        <v>212</v>
-      </c>
-      <c r="I321" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="K321" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="1" ht="22.35">
-      <c r="H322" s="1">
-        <v>52</v>
-      </c>
-      <c r="I322" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="J322" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K322" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="1" ht="74.6">
-      <c r="H323" s="1">
-        <v>17</v>
-      </c>
-      <c r="I323" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="K323" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="324" ht="12.8">
-      <c r="H324" s="1">
-        <v>7</v>
-      </c>
       <c r="I324" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>170</v>
+        <v>496</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="K324" s="1" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
     </row>
     <row r="325" ht="12.8">
       <c r="B325" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="327" ht="12.8">
-      <c r="A327" s="1" t="s">
+    <row r="326" s="1" customFormat="1" ht="12.8"/>
+    <row r="327" s="1" customFormat="1" ht="12.8"/>
+    <row r="328" s="1" customFormat="1" ht="12.8">
+      <c r="A328" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" s="1" customFormat="1" ht="22.35">
+      <c r="H329" s="1">
+        <v>1</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K329" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="330" s="1" customFormat="1" ht="22.35">
+      <c r="H330" s="1">
+        <v>2</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K330" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="331" s="1" customFormat="1" ht="32.8">
+      <c r="H331" s="1">
+        <v>5</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K331" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="332" s="1" customFormat="1" ht="43.25">
+      <c r="H332" s="1">
+        <v>6</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K332" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="1" ht="43.25">
+      <c r="H333" s="1">
+        <v>212</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="K333" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="1" ht="22.35">
+      <c r="H334" s="1">
+        <v>52</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K334" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="1" ht="74.6">
+      <c r="H335" s="1">
+        <v>17</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K335" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="336" ht="12.8">
+      <c r="H336" s="1">
+        <v>7</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J336" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="337" ht="12.8">
+      <c r="B337" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K337" s="1"/>
+    </row>
+    <row r="339" ht="12.8">
+      <c r="A339" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="328" ht="12.8">
-      <c r="D328" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="329" ht="22.35">
-      <c r="H329" s="1">
+    <row r="340" ht="12.8">
+      <c r="D340" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="341" ht="22.35">
+      <c r="H341" s="1">
         <v>8</v>
       </c>
-      <c r="I329" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="K329" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="330" ht="43.25">
-      <c r="H330" s="1">
+      <c r="I341" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K341" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="342" ht="43.25">
+      <c r="H342" s="1">
         <v>9</v>
       </c>
-      <c r="I330" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="K330" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="331" ht="22.35">
-      <c r="B331" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H331" s="1">
+      <c r="I342" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="K342" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="343" ht="22.35">
+      <c r="B343" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H343" s="1">
         <v>10</v>
       </c>
-      <c r="I331" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="K331" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="334" ht="12.8">
-      <c r="A334" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H334" s="1">
-        <v>11</v>
-      </c>
-      <c r="I334" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K334" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="335" ht="12.8">
-      <c r="B335" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H335" s="1">
-        <v>12</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J335" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="K335" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="336" ht="12.8">
-      <c r="B336" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H336" s="1">
-        <v>13</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="J336" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="K336" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="337" ht="12.8">
-      <c r="B337" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H337" s="1">
-        <v>14</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J337" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K337" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="338" ht="12.8">
-      <c r="B338" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="342" ht="12.8">
-      <c r="A342" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H342" s="1">
-        <v>15</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="K342" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="343" ht="12.8">
-      <c r="B343" s="1" t="s">
-        <v>138</v>
+      <c r="I343" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K343" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="346" ht="12.8">
       <c r="A346" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="H346" s="1">
+        <v>11</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K346" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="347" ht="12.8">
+      <c r="B347" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="H347" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="K347" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
     </row>
     <row r="348" ht="12.8">
       <c r="B348" s="1" t="s">
-        <v>138</v>
+        <v>523</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H348" s="1">
+        <v>13</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K348" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="349" ht="12.8">
+      <c r="B349" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H349" s="1">
+        <v>14</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K349" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="350" ht="12.8">
+      <c r="B350" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="354" ht="12.8">
+      <c r="A354" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H354" s="1">
+        <v>15</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K354" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="355" ht="12.8">
+      <c r="B355" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="358" ht="12.8">
+      <c r="A358" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="359" ht="12.8">
+      <c r="H359" s="1">
+        <v>16</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K359" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="360" ht="12.8">
+      <c r="B360" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Dialog/Drama/_tutorial.xlsx
+++ b/Original/CN/Dialog/Drama/_tutorial.xlsx
@@ -1145,7 +1145,7 @@
   </si>
   <si>
     <t xml:space="preserve">With this policy, trash will mostly disappear.
-However, since it lowers the public morale,
+However, since it lowers the public morality,
 you'll eventually want to switch to a better waste management solution.</t>
   </si>
   <si>
@@ -1155,7 +1155,7 @@
   </si>
   <si>
     <t xml:space="preserve">Putting up garbage dump signs and placing garbage containers
-will encourage residents to dispose of trash according to the public morale.</t>
+will encourage residents to dispose of trash according to the public morality.</t>
   </si>
   <si>
     <t xml:space="preserve">それに、掃除をしてくれる住民がいれば
@@ -3042,7 +3042,7 @@
   </si>
   <si>
     <t xml:space="preserve">休息中体力和魔力的自然恢复量也会上升
-所以战斗后也可以靠休息能力来回复。
+所以战斗后也可以靠休息能力来恢复。
 但如果此时还处于过劳和饥饿状态
 可是不会进行自然恢复的哟。</t>
   </si>
@@ -4398,10 +4398,10 @@
   </sheetPr>
   <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K359" sqref="K359"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>

--- a/Original/CN/Dialog/Drama/_tutorial.xlsx
+++ b/Original/CN/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="797">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -239,6 +239,15 @@
     <t xml:space="preserve">Dangerous Water</t>
   </si>
   <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィールドエフェクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Effect</t>
+  </si>
+  <si>
     <t xml:space="preserve">ether</t>
   </si>
   <si>
@@ -390,6 +399,55 @@
   </si>
   <si>
     <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねえ、感じる？
+この異様な空気…何か特別な「理」が息づいている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you feel it?
+This strange air...there’s a special law at work here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これは…そう、きっと「フィールドエフェクト」が発動しているのね。
+話には聞いていたけど、実際に経験するのは私も初めてよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes—something like a ‘Field Effect’ is pulsing through this place.
+I’ve heard about it before, but this is my first time experiencing it myself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フィールドエフェクトは、現在居るマップにだけ適用される特殊なルール。
+時計の右側に、今まで見たことがないアイコンが見えるでしょ？
+このアイコンを調べれば、効果を知ることができるわ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Field Effect is a special rule that applies only to the map you’re currently on.
+See that unfamiliar icon to the right of the clock?
+If you check it, you can learn what effect is active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">世界の理を変えるほどの力が、この場所には働いている…
+もちろん、それには相応の理由があるはずよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There’s a power here strong enough to bend the very laws of the world.
+And of course, there must be a reason for that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…気をつけて進んでね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…Be careful as you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">チリンチリーン！ 
@@ -400,12 +458,6 @@
     <t xml:space="preserve">Tinkle-tinkle!
 Can you believe it?
 It's been two thousand years since you started your adventure!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
   </si>
   <si>
     <t xml:space="preserve">なかなか、長生きするのね？</t>
@@ -465,9 +517,6 @@
   <si>
     <t xml:space="preserve">So...
 How about we slow things down a little from here on?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">薬草みーつけた！</t>
@@ -1101,6 +1150,34 @@
 Your beginner adventurer period is over!</t>
   </si>
   <si>
+    <t xml:space="preserve">nerun_nadenade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おっ、キミってば、一度も死ななかったのね？
+えらいえらい。はい、な～でな～で！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, you didn’t die even once, huh?
+Good, good. Come here, let me give you some head pats!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerun_nadenade2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この期間にキミが死んだ回数は実に#1回…
+一体、何をしていたの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times you died during this period is actually #1...
+What on earth were you doing? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">さすがの私も、キミみたいな冒険者は初めてよ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even for me, I’ve never seen an adventurer quite like you...</t>
+  </si>
+  <si>
     <t xml:space="preserve">これからは死んだら
 デスペナルティが発生するから気をつけていってね。</t>
   </si>
@@ -2258,6 +2335,9 @@
     <t xml:space="preserve">危险的水</t>
   </si>
   <si>
+    <t xml:space="preserve">场地效果</t>
+  </si>
+  <si>
     <t xml:space="preserve">以太病</t>
   </si>
   <si>
@@ -2292,6 +2372,26 @@
   </si>
   <si>
     <t xml:space="preserve">世界终末之时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你感觉到了吗？
+这种诡异的气氛…有什么特别的「法则」在起作用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这一定是…没错，是「场地效果」的影响。
+虽然从前听说过，但实际体验还是第一次。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">场地效果是仅适用于现在所在地图的特殊规则。
+看到时钟右侧那个之前没见过的图标了吗？
+调查这个图标你就能知道是什么效果了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足以改写世界法则的力量在此处生效…
+想必这背后定有相应的缘由。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…小心前进吧。</t>
   </si>
   <si>
     <t xml:space="preserve">叮铃！ 
@@ -2434,12 +2534,12 @@
 只要对城镇有贡献，你的对城镇的「影响力」就会提升。</t>
   </si>
   <si>
-    <t xml:space="preserve">影响力上升之后，就可以刷新委托
+    <t xml:space="preserve">影响力增高之后，就可以刷新委托
 立刻让商店进货
 大家会同意你的各种不讲道理的要求.</t>
   </si>
   <si>
-    <t xml:space="preserve">而・且・呢…！</t>
+    <t xml:space="preserve">而·且·呢…！</t>
   </si>
   <si>
     <t xml:space="preserve">影响力还能当作货币使用。
@@ -2491,7 +2591,7 @@
   </si>
   <si>
     <t xml:space="preserve">装备被腐蚀之后会有-1，-2这样的减益
-性能也会下降。</t>
+性能也会降低。</t>
   </si>
   <si>
     <t xml:space="preserve">在这个世界里，有只要接触就会喷一身酸液
@@ -2607,6 +2707,17 @@
 你的冒险者新手保护期结束咯～！</t>
   </si>
   <si>
+    <t xml:space="preserve">哦，你居然一次也没死过呢？
+了不起。来，摸摸头～摸摸头～！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在这段时间里你死了#1次…
+你到底在搞什么啊？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">就算是我都从没见过你这样的冒险者…</t>
+  </si>
+  <si>
     <t xml:space="preserve">接下来如果死掉
 就会有惩罚了，要小心哦。</t>
   </si>
@@ -2680,7 +2791,7 @@
   </si>
   <si>
     <t xml:space="preserve">盟约之石会随着出货和时间经过自动成长。
-…不过需要注意的是，盟约之石等级上升之后也会引起一些更加危险的家伙的注意…也就是说可能会有更强的敌人前来袭击。</t>
+…不过需要注意的是，盟约之石等级提升之后也会引起一些更加危险的家伙的注意…也就是说可能会有更强的敌人前来袭击。</t>
   </si>
   <si>
     <t xml:space="preserve">如果对出现在据点里的敌人感到棘手的话。
@@ -2883,7 +2994,7 @@
     <t xml:space="preserve">你刚才干了坏事吧…？</t>
   </si>
   <si>
-    <t xml:space="preserve">唉…你的善恶值下降了。
+    <t xml:space="preserve">唉…你的善恶值降低了。
 在这个世界作恶就会降低善恶值
 善恶值到达0以下就会成为犯罪者。
 …成为犯罪者的话是很难活下去的。</t>
@@ -2910,7 +3021,7 @@
 真是看错你了。</t>
   </si>
   <si>
-    <t xml:space="preserve">…哼，善恶值降到0以下，你就变成通缉犯了。
+    <t xml:space="preserve">…哼，善恶值降到0以下，你就会被通缉了。
 守卫会追赶你，商人们会拒绝与你交易，妹们也会对你冷眼相待
 被当作社会的敌人，度过悲惨地一生！</t>
   </si>
@@ -3041,7 +3152,7 @@
 不过比在床上睡觉效果要差就是了。</t>
   </si>
   <si>
-    <t xml:space="preserve">休息中体力和魔力的自然恢复量也会上升
+    <t xml:space="preserve">休息中体力和魔力的自然恢复量也会提升
 所以战斗后也可以靠休息能力来恢复。
 但如果此时还处于过劳和饥饿状态
 可是不会进行自然恢复的哟。</t>
@@ -3499,12 +3610,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H38" sqref="H38"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -3561,7 +3672,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" ht="12.8">
@@ -3584,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3614,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="12.8">
@@ -3637,7 +3748,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.8">
@@ -3660,7 +3771,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -3706,7 +3817,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="12.8">
@@ -3729,7 +3840,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -3752,7 +3863,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3782,7 +3893,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -3805,7 +3916,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -3851,7 +3962,7 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -3897,7 +4008,7 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -3920,7 +4031,7 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -3943,7 +4054,7 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -3966,7 +4077,7 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" ht="13.8">
@@ -3989,7 +4100,7 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" ht="13.8">
@@ -4012,7 +4123,7 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" ht="13.8">
@@ -4035,12 +4146,12 @@
         <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" ht="12.8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" ht="13.8">
       <c r="B26" s="1">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -4051,19 +4162,19 @@
       <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="6" t="s">
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" ht="12.8">
       <c r="B27" s="1">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -4074,51 +4185,43 @@
       <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" ht="12.8">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4">
-        <v>851</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="1">
+        <v>850</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="H28" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
@@ -4136,7 +4239,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4149,7 +4252,7 @@
     <row r="30" ht="12.8">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -4163,17 +4266,24 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>559</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
@@ -4187,24 +4297,17 @@
       <c r="F31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+        <v>581</v>
+      </c>
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
@@ -4218,17 +4321,24 @@
       <c r="F32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>561</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="4"/>
       <c r="B33" s="4">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
@@ -4246,13 +4356,13 @@
         <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -4266,24 +4376,17 @@
       <c r="F34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="10" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+        <v>584</v>
+      </c>
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -4301,7 +4404,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4312,31 +4415,39 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" ht="12.8">
-      <c r="B36" s="1">
-        <v>899</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
+        <v>890</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H36" t="s">
-        <v>103</v>
-      </c>
+      <c r="G36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
     </row>
     <row r="37" ht="12.8">
       <c r="B37" s="1">
-        <v>950</v>
+        <v>899</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -4344,22 +4455,22 @@
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>104</v>
+      <c r="E37" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>565</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="12.8">
       <c r="B38" s="1">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -4370,14 +4481,37 @@
       <c r="E38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>566</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
+      <c r="B39" s="1">
+        <v>990</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4396,12 +4530,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K360"/>
+  <dimension ref="A1:K373"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K359" sqref="K359"/>
-      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K372" sqref="K372"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -4420,19 +4554,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4453,20 +4587,20 @@
     <row r="2" ht="12.8">
       <c r="H2" s="1">
         <f>MAX(H4:H1048576)</f>
-        <v>229</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" ht="12.8">
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="12.8">
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -4474,755 +4608,759 @@
     </row>
     <row r="7" ht="12.8">
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="12.8">
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" ht="35.05">
-      <c r="H13" s="1">
-        <v>220</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" ht="12.8">
+        <v>127</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" ht="22.35">
       <c r="H14" s="1">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" ht="12.8">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" ht="23.85">
       <c r="H15" s="1">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" ht="35.05">
       <c r="H16" s="1">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="17" ht="35.05">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" ht="23.85">
       <c r="H17" s="1">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" ht="46.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" ht="22.35">
       <c r="H18" s="1">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="19" ht="22.35">
-      <c r="H19" s="1">
-        <v>226</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>572</v>
-      </c>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8">
+      <c r="I19" s="4"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" ht="12.8">
-      <c r="H20" s="1">
-        <v>227</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="B21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" ht="12.8">
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" ht="35.05">
+      <c r="H23" s="1">
+        <v>220</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" ht="12.8">
+      <c r="H24" s="1">
+        <v>221</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" ht="12.8">
-      <c r="H21" s="1">
-        <v>228</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="22" ht="23.85">
-      <c r="H22" s="1">
-        <v>229</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="23" ht="12.8">
-      <c r="B23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" ht="12.8">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="1"/>
+      <c r="J24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="25" ht="12.8">
       <c r="H25" s="1">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" ht="35.05">
       <c r="H26" s="1">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" ht="35.05">
       <c r="H27" s="1">
+        <v>224</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" ht="46.25">
+      <c r="H28" s="1">
+        <v>225</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" ht="22.35">
+      <c r="H29" s="1">
+        <v>226</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8">
+      <c r="H30" s="1">
+        <v>227</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" ht="12.8">
+      <c r="H31" s="1">
+        <v>228</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" ht="23.85">
+      <c r="H32" s="1">
+        <v>229</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="33" ht="12.8">
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" ht="12.8">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" ht="12.8">
+      <c r="H35" s="1">
+        <v>200</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" ht="35.05">
+      <c r="H36" s="1">
+        <v>201</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" ht="35.05">
+      <c r="H37" s="1">
         <v>202</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="28" ht="23.85">
-      <c r="H28" s="1">
+      <c r="I37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" ht="23.85">
+      <c r="H38" s="1">
         <v>203</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="29" ht="35.05">
-      <c r="H29" s="1">
+      <c r="I38" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="39" ht="35.05">
+      <c r="H39" s="1">
         <v>204</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="30" ht="34.3">
-      <c r="H30" s="1">
+      <c r="I39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" ht="34.3">
+      <c r="H40" s="1">
         <v>205</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="31" ht="35.05">
-      <c r="H31" s="1">
+      <c r="I40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="41" ht="35.05">
+      <c r="H41" s="1">
         <v>206</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="32" ht="12.8">
-      <c r="H32" s="1">
+      <c r="I41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" ht="12.8">
+      <c r="H42" s="1">
         <v>207</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" ht="12.8">
-      <c r="H33" s="1">
+      <c r="I42" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" ht="12.8">
+      <c r="H43" s="1">
         <v>208</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" ht="12.8">
-      <c r="B34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" ht="12.8">
-      <c r="B35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" ht="12.8">
-      <c r="A36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" ht="23.85">
-      <c r="H37" s="1">
+      <c r="J43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" ht="12.8">
+      <c r="B44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" ht="12.8">
+      <c r="B45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" ht="12.8">
+      <c r="A46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" ht="23.85">
+      <c r="H47" s="1">
         <v>210</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8">
-      <c r="H38" s="1">
+      <c r="I47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="48" ht="12.8">
+      <c r="H48" s="1">
         <v>211</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
-      <c r="I39" s="4"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" ht="12.8">
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" ht="12.8">
-      <c r="B41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" ht="12.8">
-      <c r="B42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="12.8">
-      <c r="A43" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="23.85">
-      <c r="H44" s="1">
-        <v>193</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K44" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="35.05">
-      <c r="H45" s="1">
-        <v>194</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K45" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="23.85">
-      <c r="H46" s="1">
-        <v>195</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K46" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="32.8">
-      <c r="H47" s="1">
-        <v>196</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K47" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="35.05">
-      <c r="H48" s="1">
-        <v>197</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K48" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="46.25">
-      <c r="H49" s="1">
-        <v>198</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="23.85">
-      <c r="H50" s="1">
-        <v>199</v>
-      </c>
-      <c r="I50" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K50" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="12.8">
+      <c r="K48" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="49" ht="12.8">
+      <c r="I49" s="4"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" ht="12.8">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" ht="12.8">
+      <c r="B51" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="12.8">
+      <c r="J51" s="4"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" ht="12.8">
+      <c r="B52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="12.8">
-      <c r="B53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" ht="12.8">
-      <c r="B54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="12.8">
-      <c r="A55" s="4" t="s">
+      <c r="A53" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="23.85">
+      <c r="H54" s="1">
+        <v>193</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K54" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="35.05">
+      <c r="H55" s="1">
+        <v>194</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K55" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="23.85">
+      <c r="H56" s="1">
+        <v>195</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K56" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="32.8">
+      <c r="H57" s="1">
+        <v>196</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="35.05">
+      <c r="H58" s="1">
+        <v>197</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K58" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="46.25">
+      <c r="H59" s="1">
+        <v>198</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K59" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="23.85">
+      <c r="H60" s="1">
+        <v>199</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="12.8">
+      <c r="I61" s="4"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="12.8">
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="12.8">
+      <c r="B63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" ht="12.8">
+      <c r="B64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="12.8">
+      <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12.8">
-      <c r="H56" s="1">
+    <row r="66" s="1" customFormat="1" ht="12.8">
+      <c r="H66" s="1">
         <v>184</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K56" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="35.05">
-      <c r="H57" s="1">
+      <c r="I66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="35.05">
+      <c r="H67" s="1">
         <v>185</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K57" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="12.8">
-      <c r="H58" s="1">
+      <c r="I67" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K67" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="12.8">
+      <c r="H68" s="1">
         <v>186</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K58" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="23.85">
-      <c r="H59" s="1">
+      <c r="I68" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="K68" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="23.85">
+      <c r="H69" s="1">
         <v>187</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K59" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="12.8">
-      <c r="H60" s="1">
-        <v>188</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="46.25">
-      <c r="H61" s="1">
-        <v>189</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K61" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="12.8">
-      <c r="H62" s="1">
-        <v>190</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="23.85">
-      <c r="H63" s="1">
-        <v>191</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K63" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="12.8">
-      <c r="H64" s="1">
-        <v>192</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K64" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="12.8">
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="12.8">
-      <c r="B66" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" ht="12.8">
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" ht="12.8">
-      <c r="A68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" ht="12.8">
-      <c r="K69" s="1"/>
+      <c r="I69" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="K69" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="12.8">
       <c r="H70" s="1">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="I70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="46.25">
+      <c r="H71" s="1">
+        <v>189</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K71" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="12.8">
+      <c r="H72" s="1">
         <v>190</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="I72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="23.85">
+      <c r="H73" s="1">
         <v>191</v>
       </c>
-      <c r="K70" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="22.35">
-      <c r="H71" s="1">
-        <v>175</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="I73" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="K73" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="12.8">
+      <c r="H74" s="1">
         <v>192</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K71" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="32.8">
-      <c r="H72" s="1">
-        <v>176</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K72" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="12.8">
-      <c r="H73" s="1">
-        <v>177</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K73" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="32.8">
-      <c r="H74" s="1">
-        <v>178</v>
-      </c>
       <c r="I74" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="K74" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="22.35">
-      <c r="H75" s="1">
-        <v>179</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K75" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="76" ht="12.8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="12.8">
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="12.8">
       <c r="B76" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="78" ht="22.35">
-      <c r="A78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" ht="12.8">
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" ht="12.8">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K78" s="1"/>
@@ -5230,340 +5368,252 @@
     <row r="79" ht="12.8">
       <c r="K79" s="1"/>
     </row>
-    <row r="80" ht="12.8">
+    <row r="80" s="1" customFormat="1" ht="12.8">
       <c r="H80" s="1">
+        <v>174</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="K80" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="22.35">
+      <c r="H81" s="1">
+        <v>175</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="K81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="32.8">
+      <c r="H82" s="1">
+        <v>176</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K82" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="12.8">
+      <c r="H83" s="1">
+        <v>177</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="32.8">
+      <c r="H84" s="1">
+        <v>178</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K84" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="22.35">
+      <c r="H85" s="1">
+        <v>179</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K85" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="86" ht="12.8">
+      <c r="B86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="88" ht="22.35">
+      <c r="A88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" ht="12.8">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" ht="12.8">
+      <c r="H90" s="1">
         <v>180</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="81" ht="35.05">
-      <c r="H81" s="1">
+      <c r="I90" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" ht="35.05">
+      <c r="H91" s="1">
         <v>181</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="82" ht="23.85">
-      <c r="H82" s="1">
+      <c r="I91" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92" ht="23.85">
+      <c r="H92" s="1">
         <v>182</v>
       </c>
-      <c r="I82" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="83" ht="35.05">
-      <c r="H83" s="1">
+      <c r="I92" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93" ht="35.05">
+      <c r="H93" s="1">
         <v>183</v>
       </c>
-      <c r="I83" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="84" ht="12.8">
-      <c r="B84" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="87" s="1" customFormat="1" ht="12.8">
-      <c r="A87" s="4" t="s">
+      <c r="I93" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" ht="12.8">
+      <c r="B94" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="12.8">
+      <c r="A97" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" ht="12.8"/>
-    <row r="89" s="1" customFormat="1" ht="12.8">
-      <c r="H89" s="1">
+    <row r="98" s="1" customFormat="1" ht="12.8"/>
+    <row r="99" s="1" customFormat="1" ht="12.8">
+      <c r="H99" s="1">
         <v>22</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K89" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" ht="32.8">
-      <c r="H90" s="1">
+      <c r="I99" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K99" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="32.8">
+      <c r="H100" s="1">
         <v>23</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K90" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" ht="32.8">
-      <c r="H91" s="1">
+      <c r="I100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K100" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="32.8">
+      <c r="H101" s="1">
         <v>24</v>
       </c>
-      <c r="I91" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K91" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="12.8">
-      <c r="H92" s="1">
+      <c r="I101" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K101" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="12.8">
+      <c r="H102" s="1">
         <v>25</v>
       </c>
-      <c r="I92" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="K92" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" ht="12.8">
-      <c r="B93" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" ht="15.65" customHeight="1">
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" ht="12.8">
-      <c r="A95" s="4" t="s">
+      <c r="I102" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K102" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="12.8">
+      <c r="B103" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" ht="15.65" customHeight="1">
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" ht="12.8">
+      <c r="A105" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-    </row>
-    <row r="96" ht="23.85">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="1">
-        <v>169</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="97" ht="13.8">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="1">
-        <v>170</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="98" ht="23.85">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="1">
-        <v>171</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="99" ht="46.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="1">
-        <v>172</v>
-      </c>
-      <c r="I99" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="J99" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="100" ht="35.05">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="1">
-        <v>173</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="101" ht="13.8">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="4"/>
-    </row>
-    <row r="102" ht="12.8">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="12.8">
-      <c r="A103" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="13.8">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="1">
-        <v>155</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="23.85">
-      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="1">
-        <v>156</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="35.05">
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" ht="23.85">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5572,19 +5622,19 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="1">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I106" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J106" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J106" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="K106" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="23.85">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="107" ht="13.8">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5593,19 +5643,19 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="1">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="I107" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J107" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="J107" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="K107" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="35.05">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="108" ht="23.85">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5614,19 +5664,19 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="1">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I108" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J108" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J108" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="K108" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="35.05">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="109" ht="46.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5635,89 +5685,80 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="1">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="I109" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J109" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J109" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="K109" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="12.8">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="110" ht="35.05">
       <c r="A110" s="4"/>
-      <c r="B110" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-    </row>
-    <row r="111" s="1" customFormat="1" ht="12.8">
-      <c r="A111" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H110" s="1">
+        <v>173</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="111" ht="13.8">
+      <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="10"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="13.8">
+    <row r="112" ht="12.8">
       <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="1">
-        <v>161</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="23.85">
-      <c r="A113" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="12.8">
+      <c r="A113" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="H113" s="1">
-        <v>162</v>
-      </c>
-      <c r="I113" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="35.05">
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="13.8">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5726,16 +5767,16 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="1">
-        <v>163</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>244</v>
+        <v>155</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="23.85">
@@ -5747,47 +5788,61 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="1">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="12.8">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="35.05">
       <c r="A116" s="4"/>
-      <c r="B116" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="12.8">
-      <c r="A117" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H116" s="1">
+        <v>157</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="23.85">
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="13.8">
+      <c r="H117" s="1">
+        <v>158</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="35.05">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5796,19 +5851,19 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="1">
-        <v>165</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>248</v>
+        <v>159</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="13.8">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="35.05">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5817,89 +5872,89 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="1">
-        <v>166</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>125</v>
+        <v>160</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="23.85">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="12.8">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="1">
-        <v>167</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="23.85">
-      <c r="A121" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="12.8">
+      <c r="A121" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="1">
-        <v>168</v>
-      </c>
-      <c r="I121" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="J121" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="12.8">
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="13.8">
       <c r="A122" s="4"/>
-      <c r="B122" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="12.8">
-      <c r="A123" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="H122" s="1">
+        <v>161</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="23.85">
+      <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="23.85">
+      <c r="H123" s="1">
+        <v>162</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="35.05">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -5908,19 +5963,19 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="1">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="35.05">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="23.85">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5929,61 +5984,47 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="1">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="46.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="12.8">
       <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="1">
-        <v>118</v>
-      </c>
-      <c r="I126" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="J126" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="35.05">
-      <c r="A127" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="12.8">
+      <c r="A127" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="H127" s="1">
-        <v>119</v>
-      </c>
-      <c r="I127" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="J127" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="23.85">
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="13.8">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5992,33 +6033,40 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="1">
-        <v>120</v>
-      </c>
-      <c r="I128" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J128" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="J128" s="10" t="s">
-        <v>263</v>
-      </c>
       <c r="K128" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="12.8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="13.8">
       <c r="A129" s="4"/>
-      <c r="B129" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="12.8">
+      <c r="H129" s="1">
+        <v>166</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="23.85">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6026,67 +6074,69 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="22.35">
-      <c r="A131" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="H130" s="1">
+        <v>167</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="23.85">
+      <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="13.8">
+      <c r="H131" s="1">
+        <v>168</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="12.8">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="1">
-        <v>121</v>
-      </c>
-      <c r="I132" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="35.05">
-      <c r="A133" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="12.8">
+      <c r="A133" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="1">
-        <v>122</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="35.05">
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="23.85">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6095,19 +6145,19 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="1">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I134" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J134" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="K134" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="23.85">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="35.05">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6116,19 +6166,19 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I135" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J135" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="J135" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="K135" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="23.85">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="46.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6137,19 +6187,19 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="1">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I136" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="J136" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="K136" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="22.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="35.05">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6158,19 +6208,19 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="1">
-        <v>126</v>
-      </c>
-      <c r="I137" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J137" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="K137" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="12.8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="23.85">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6178,14 +6228,23 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
+      <c r="H138" s="1">
+        <v>120</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="139" s="1" customFormat="1" ht="12.8">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -6210,7 +6269,7 @@
     </row>
     <row r="141" s="1" customFormat="1" ht="22.35">
       <c r="A141" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6222,7 +6281,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" s="1" customFormat="1" ht="23.85">
+    <row r="142" s="1" customFormat="1" ht="13.8">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6231,19 +6290,19 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="1">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="23.85">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="35.05">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6252,19 +6311,19 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1">
-        <v>128</v>
-      </c>
-      <c r="I143" s="14" t="s">
-        <v>278</v>
+        <v>122</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="12.8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="35.05">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6272,25 +6331,41 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="12.8">
+      <c r="H144" s="1">
+        <v>123</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="23.85">
       <c r="A145" s="4"/>
-      <c r="B145" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="12.8">
+      <c r="H145" s="1">
+        <v>124</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="23.85">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6298,25 +6373,41 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="12.8">
-      <c r="A147" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="H146" s="1">
+        <v>125</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="22.35">
+      <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="13.8">
+      <c r="H147" s="1">
+        <v>126</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="12.8">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6324,41 +6415,25 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="1">
-        <v>129</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J148" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="23.85">
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="12.8">
       <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="1">
-        <v>130</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="23.85">
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="12.8">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6366,41 +6441,25 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="1">
-        <v>131</v>
-      </c>
-      <c r="I150" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="23.85">
-      <c r="A151" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="22.35">
+      <c r="A151" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="1">
-        <v>132</v>
-      </c>
-      <c r="I151" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="35.05">
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="23.85">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6409,94 +6468,107 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J152" s="4" t="s">
         <v>289</v>
       </c>
+      <c r="J152" s="10" t="s">
+        <v>290</v>
+      </c>
       <c r="K152" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="35.05">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="23.85">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="1">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="23.85">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="1">
-        <v>135</v>
-      </c>
-      <c r="I154" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>293</v>
+        <v>231</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="23.85">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="22.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1">
-        <v>136</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>295</v>
+        <v>232</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="12.8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="23.85">
       <c r="A156" s="4"/>
-      <c r="B156" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
+      <c r="H156" s="1">
+        <v>128</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="157" s="1" customFormat="1" ht="12.8">
       <c r="A157" s="4"/>
@@ -6511,10 +6583,10 @@
       <c r="K157" s="4"/>
     </row>
     <row r="158" s="1" customFormat="1" ht="12.8">
-      <c r="A158" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="4"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -6524,7 +6596,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="23.85">
+    <row r="159" s="1" customFormat="1" ht="12.8">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6532,39 +6604,23 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="1">
-        <v>137</v>
-      </c>
-      <c r="I159" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J159" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="13.8">
-      <c r="A160" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="12.8">
+      <c r="A160" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="1">
-        <v>138</v>
-      </c>
-      <c r="I160" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J160" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
     </row>
     <row r="161" s="1" customFormat="1" ht="13.8">
       <c r="A161" s="4"/>
@@ -6575,19 +6631,19 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="1">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="35.05">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="23.85">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -6596,16 +6652,16 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="1">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J162" s="10" t="s">
         <v>303</v>
       </c>
+      <c r="J162" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="K162" s="4" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" ht="23.85">
@@ -6617,19 +6673,19 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="1">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="J163" s="10" t="s">
         <v>305</v>
       </c>
+      <c r="J163" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="K163" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="35.05">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="23.85">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6638,47 +6694,61 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="J164" s="10" t="s">
         <v>307</v>
       </c>
+      <c r="J164" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="K164" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="12.8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="35.05">
       <c r="A165" s="4"/>
-      <c r="B165" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="12.8">
-      <c r="A166" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="H165" s="1">
+        <v>133</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="35.05">
+      <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="13.8">
+      <c r="H166" s="1">
+        <v>134</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K166" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="23.85">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6687,19 +6757,19 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1">
-        <v>143</v>
-      </c>
-      <c r="I167" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="J167" s="10" t="s">
-        <v>309</v>
+        <v>135</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="35.05">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="23.85">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6708,40 +6778,33 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="1">
-        <v>144</v>
-      </c>
-      <c r="I168" s="12" t="s">
-        <v>310</v>
+        <v>136</v>
+      </c>
+      <c r="I168" s="14" t="s">
+        <v>315</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="35.05">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="12.8">
       <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="1">
-        <v>145</v>
-      </c>
-      <c r="I169" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="35.05">
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="12.8">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6749,41 +6812,25 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="1">
-        <v>146</v>
-      </c>
-      <c r="I170" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K170" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="46.25">
-      <c r="A171" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="12.8">
+      <c r="A171" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="1">
-        <v>147</v>
-      </c>
-      <c r="I171" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="K171" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="12.8">
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="23.85">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6791,11 +6838,20 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="12.8">
+      <c r="H172" s="1">
+        <v>137</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="J172" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="13.8">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6803,39 +6859,62 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="12.8">
+      <c r="H173" s="1">
+        <v>138</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="J173" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="13.8">
       <c r="A174" s="4"/>
-      <c r="B174" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="12.8">
-      <c r="A175" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="H174" s="1">
+        <v>139</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="J174" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="35.05">
+      <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="12.8">
+      <c r="H175" s="1">
+        <v>140</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="J175" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="23.85">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6844,19 +6923,19 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="1">
-        <v>148</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>318</v>
+        <v>141</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="12.8">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="35.05">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6865,61 +6944,47 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="1">
-        <v>149</v>
-      </c>
-      <c r="I177" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>321</v>
+        <v>142</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J177" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="32.8">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="12.8">
       <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="1">
-        <v>150</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="32.8">
-      <c r="A179" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="12.8">
+      <c r="A179" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="1">
-        <v>151</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="43.25">
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="13.8">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6928,19 +6993,19 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="1">
-        <v>152</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>327</v>
+        <v>143</v>
+      </c>
+      <c r="I180" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J180" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="32.8">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="35.05">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6949,19 +7014,19 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="1">
-        <v>153</v>
-      </c>
-      <c r="I181" s="4" t="s">
-        <v>328</v>
+        <v>144</v>
+      </c>
+      <c r="I181" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="182" ht="32.8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="35.05">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6970,524 +7035,604 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="1">
-        <v>154</v>
-      </c>
-      <c r="I182" s="4" t="s">
-        <v>330</v>
+        <v>145</v>
+      </c>
+      <c r="I182" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="12.8">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="35.05">
       <c r="A183" s="4"/>
-      <c r="B183" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="12.8">
+      <c r="H183" s="1">
+        <v>146</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="46.25">
+      <c r="A184" s="4"/>
       <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="1">
+        <v>147</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="185" s="1" customFormat="1" ht="12.8">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="12.8">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="12.8">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="12.8">
+      <c r="A188" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="12.8">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="1">
+        <v>148</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J189" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="12.8">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="1">
+        <v>149</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="32.8">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="1">
+        <v>150</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="32.8">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="1">
+        <v>151</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="43.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="1">
+        <v>152</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="32.8">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="1">
+        <v>153</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="195" ht="32.8">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="1">
+        <v>154</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="12.8">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="12.8">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="12.8">
+      <c r="A198" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="1" ht="12.8"/>
-    <row r="187" s="1" customFormat="1" ht="12.8">
-      <c r="H187" s="1">
+    <row r="199" s="1" customFormat="1" ht="12.8"/>
+    <row r="200" s="1" customFormat="1" ht="12.8">
+      <c r="H200" s="1">
         <v>105</v>
       </c>
-      <c r="I187" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J187" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K187" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="22.35">
-      <c r="H188" s="1">
+      <c r="I200" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K200" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="22.35">
+      <c r="H201" s="1">
         <v>106</v>
       </c>
-      <c r="I188" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K188" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="32.8">
-      <c r="H189" s="1">
+      <c r="I201" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K201" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="32.8">
+      <c r="H202" s="1">
         <v>107</v>
       </c>
-      <c r="I189" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="K189" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="32.8">
-      <c r="H190" s="1">
+      <c r="I202" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J202" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="K202" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="32.8">
+      <c r="H203" s="1">
         <v>108</v>
       </c>
-      <c r="I190" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="K190" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="22.35">
-      <c r="H191" s="1">
+      <c r="I203" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J203" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K203" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="22.35">
+      <c r="H204" s="1">
         <v>109</v>
       </c>
-      <c r="I191" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="K191" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="12.8">
-      <c r="B192" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="12.8">
-      <c r="A193" s="4" t="s">
+      <c r="I204" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K204" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="12.8">
+      <c r="B205" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="12.8">
+      <c r="A206" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="12.8"/>
-    <row r="195" s="1" customFormat="1" ht="12.8">
-      <c r="H195" s="1">
+    <row r="207" s="1" customFormat="1" ht="12.8"/>
+    <row r="208" s="1" customFormat="1" ht="12.8">
+      <c r="H208" s="1">
         <v>110</v>
       </c>
-      <c r="I195" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="J195" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="K195" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23.85">
-      <c r="H196" s="1">
+      <c r="I208" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J208" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="K208" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="23.85">
+      <c r="H209" s="1">
         <v>111</v>
       </c>
-      <c r="I196" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J196" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="K196" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23.85">
-      <c r="H197" s="1">
+      <c r="I209" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J209" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="K209" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="23.85">
+      <c r="H210" s="1">
         <v>112</v>
       </c>
-      <c r="I197" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J197" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="K197" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="46.25">
-      <c r="H198" s="1">
+      <c r="I210" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J210" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="K210" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="46.25">
+      <c r="H211" s="1">
         <v>113</v>
       </c>
-      <c r="I198" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="J198" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="K198" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="23.85">
-      <c r="H199" s="1">
+      <c r="I211" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="J211" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K211" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="23.85">
+      <c r="H212" s="1">
         <v>114</v>
       </c>
-      <c r="I199" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="J199" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="K199" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="200" ht="23.85">
-      <c r="H200" s="1">
+      <c r="I212" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="J212" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="K212" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="213" ht="23.85">
+      <c r="H213" s="1">
         <v>115</v>
       </c>
-      <c r="I200" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="12.8">
-      <c r="B201" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="12.8">
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="22.35">
-      <c r="A203" s="4" t="s">
+      <c r="I213" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J213" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="12.8">
+      <c r="B214" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="12.8">
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" s="1" customFormat="1" ht="22.35">
+      <c r="A216" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="204" s="1" customFormat="1" ht="12.8"/>
-    <row r="205" s="1" customFormat="1" ht="12.8">
-      <c r="H205" s="1">
+    <row r="217" s="1" customFormat="1" ht="12.8"/>
+    <row r="218" s="1" customFormat="1" ht="12.8">
+      <c r="H218" s="1">
         <v>26</v>
       </c>
-      <c r="I205" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J205" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K205" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="32.8">
-      <c r="H206" s="1">
+      <c r="I218" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J218" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="K218" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="219" s="1" customFormat="1" ht="32.8">
+      <c r="H219" s="1">
         <v>27</v>
       </c>
-      <c r="I206" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="J206" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="K206" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="22.35">
-      <c r="H207" s="1">
+      <c r="I219" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="K219" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="220" s="1" customFormat="1" ht="22.35">
+      <c r="H220" s="1">
         <v>28</v>
       </c>
-      <c r="I207" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="J207" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="K207" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="64.15">
-      <c r="H208" s="1">
+      <c r="I220" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K220" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="221" s="1" customFormat="1" ht="64.15">
+      <c r="H221" s="1">
         <v>29</v>
       </c>
-      <c r="I208" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J208" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="K208" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="32.8">
-      <c r="H209" s="1">
+      <c r="I221" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K221" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="222" s="1" customFormat="1" ht="32.8">
+      <c r="H222" s="1">
         <v>30</v>
       </c>
-      <c r="I209" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J209" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="K209" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="12.8">
-      <c r="H210" s="1">
+      <c r="I222" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K222" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="223" s="1" customFormat="1" ht="12.8">
+      <c r="H223" s="1">
         <v>31</v>
       </c>
-      <c r="I210" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J210" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="K210" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="12.8">
-      <c r="H211" s="1">
+      <c r="I223" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K223" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="224" s="1" customFormat="1" ht="12.8">
+      <c r="H224" s="1">
         <v>32</v>
       </c>
-      <c r="I211" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J211" s="4" t="s">
+      <c r="I224" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K211" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="212" s="1" customFormat="1" ht="22.35">
-      <c r="H212" s="1">
+      <c r="J224" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K224" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" s="1" customFormat="1" ht="22.35">
+      <c r="H225" s="1">
         <v>33</v>
       </c>
-      <c r="I212" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K212" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="213" ht="12.8">
-      <c r="H213" s="1">
+      <c r="I225" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K225" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="226" ht="12.8">
+      <c r="H226" s="1">
         <v>34</v>
       </c>
-      <c r="I213" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="214" ht="12.8">
-      <c r="B214" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" ht="15.65" customHeight="1"/>
-    <row r="216" ht="15.65" customHeight="1"/>
-    <row r="217" ht="15.65" customHeight="1"/>
-    <row r="218" ht="12.8">
-      <c r="A218" s="1" t="s">
+      <c r="I226" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="227" ht="12.8">
+      <c r="B227" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" ht="15.65" customHeight="1"/>
+    <row r="229" ht="15.65" customHeight="1"/>
+    <row r="230" ht="15.65" customHeight="1"/>
+    <row r="231" ht="12.8">
+      <c r="A231" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="220" ht="12.8">
-      <c r="H220" s="1">
-        <v>35</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="K220" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="221" ht="12.8">
-      <c r="B221" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H221" s="1">
-        <v>36</v>
-      </c>
-      <c r="I221" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K221" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="222" ht="12.8">
-      <c r="B222" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H222" s="1">
-        <v>37</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="K222" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="223" ht="12.8">
-      <c r="I223" s="4"/>
-      <c r="J223" s="10"/>
-    </row>
-    <row r="224" ht="12.8">
-      <c r="A224" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I224" s="4"/>
-      <c r="J224" s="10"/>
-    </row>
-    <row r="225" ht="22.35">
-      <c r="H225" s="1">
-        <v>38</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="K225" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="226" s="1" customFormat="1" ht="22.35">
-      <c r="H226" s="1">
-        <v>39</v>
-      </c>
-      <c r="I226" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K226" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="227" ht="22.35">
-      <c r="H227" s="1">
-        <v>40</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K227" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="228" ht="22.35">
-      <c r="H228" s="1">
-        <v>41</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J228" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K228" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="229" ht="22.35">
-      <c r="H229" s="1">
-        <v>42</v>
-      </c>
-      <c r="I229" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K229" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="230" ht="32.8">
-      <c r="H230" s="1">
-        <v>43</v>
-      </c>
-      <c r="I230" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J230" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K230" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="231" ht="12.8">
-      <c r="B231" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J231" s="4"/>
-    </row>
-    <row r="232" ht="12.8">
-      <c r="A232" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J232" s="4"/>
     </row>
     <row r="233" ht="12.8">
       <c r="H233" s="1">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I233" s="4" t="s">
         <v>391</v>
@@ -7496,1271 +7641,1432 @@
         <v>392</v>
       </c>
       <c r="K233" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="234" s="1" customFormat="1" ht="12.8">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="234" ht="12.8">
       <c r="B234" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="235" s="1" customFormat="1" ht="12.8"/>
-    <row r="236" s="1" customFormat="1" ht="12.8">
-      <c r="A236" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="237" s="1" customFormat="1" ht="23.85">
-      <c r="H237" s="1">
+        <v>393</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H234" s="1">
+        <v>36</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J234" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="K234" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="235" ht="12.8">
+      <c r="B235" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H235" s="1">
+        <v>37</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="J235" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K235" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="236" ht="12.8">
+      <c r="I236" s="4"/>
+      <c r="J236" s="10"/>
+    </row>
+    <row r="237" ht="12.8">
+      <c r="A237" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I237" s="4"/>
+      <c r="J237" s="10"/>
+    </row>
+    <row r="238" ht="22.35">
+      <c r="H238" s="1">
+        <v>38</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K238" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" ht="22.35">
+      <c r="H239" s="1">
+        <v>39</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K239" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="240" ht="22.35">
+      <c r="H240" s="1">
+        <v>40</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K240" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="241" ht="22.35">
+      <c r="H241" s="1">
+        <v>41</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="242" ht="22.35">
+      <c r="H242" s="1">
+        <v>42</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="K242" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="243" ht="32.8">
+      <c r="H243" s="1">
+        <v>43</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K243" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="244" ht="12.8">
+      <c r="B244" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" ht="12.8">
+      <c r="A245" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J245" s="4"/>
+    </row>
+    <row r="246" ht="12.8">
+      <c r="H246" s="1">
+        <v>44</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="J246" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K246" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="1" ht="12.8">
+      <c r="B247" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="248" s="1" customFormat="1" ht="12.8"/>
+    <row r="249" s="1" customFormat="1" ht="12.8">
+      <c r="A249" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" ht="23.85">
+      <c r="H250" s="1">
         <v>93</v>
       </c>
-      <c r="I237" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="J237" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="K237" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="238" s="1" customFormat="1" ht="32.8">
-      <c r="H238" s="1">
+      <c r="I250" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J250" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="K250" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="32.8">
+      <c r="H251" s="1">
         <v>94</v>
       </c>
-      <c r="I238" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K238" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="239" s="1" customFormat="1" ht="32.8">
-      <c r="H239" s="1">
+      <c r="I251" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K251" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="32.8">
+      <c r="H252" s="1">
         <v>95</v>
       </c>
-      <c r="I239" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="K239" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="240" s="1" customFormat="1" ht="32.8">
-      <c r="H240" s="1">
+      <c r="I252" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="K252" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="32.8">
+      <c r="H253" s="1">
         <v>96</v>
       </c>
-      <c r="I240" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="K240" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="241" s="1" customFormat="1" ht="12.8">
-      <c r="H241" s="1">
+      <c r="I253" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J253" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="K253" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="12.8">
+      <c r="H254" s="1">
         <v>97</v>
       </c>
-      <c r="I241" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J241" s="4" t="s">
+      <c r="I254" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K241" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="242" s="1" customFormat="1" ht="12.8">
-      <c r="H242" s="1">
+      <c r="J254" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K254" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="12.8">
+      <c r="H255" s="1">
         <v>98</v>
       </c>
-      <c r="I242" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="K242" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="243" s="1" customFormat="1" ht="32.8">
-      <c r="H243" s="1">
+      <c r="I255" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="J255" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K255" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="32.8">
+      <c r="H256" s="1">
         <v>99</v>
       </c>
-      <c r="I243" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="K243" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="244" s="1" customFormat="1" ht="12.8">
-      <c r="I244" s="4"/>
-      <c r="J244" s="4"/>
-    </row>
-    <row r="245" s="1" customFormat="1" ht="12.8">
-      <c r="B245" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="246" s="1" customFormat="1" ht="12.8">
-      <c r="A246" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="247" s="1" customFormat="1" ht="23.85">
-      <c r="H247" s="1">
+      <c r="I256" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K256" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" ht="12.8">
+      <c r="I257" s="4"/>
+      <c r="J257" s="4"/>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="12.8">
+      <c r="B258" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="1" ht="12.8">
+      <c r="A259" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="1" ht="23.85">
+      <c r="H260" s="1">
         <v>100</v>
       </c>
-      <c r="I247" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K247" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="248" s="1" customFormat="1" ht="43.25">
-      <c r="H248" s="1">
+      <c r="I260" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="J260" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K260" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" ht="43.25">
+      <c r="H261" s="1">
         <v>101</v>
       </c>
-      <c r="I248" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="J248" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="K248" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="249" s="1" customFormat="1" ht="32.8">
-      <c r="H249" s="1">
+      <c r="I261" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K261" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="262" s="1" customFormat="1" ht="32.8">
+      <c r="H262" s="1">
         <v>102</v>
       </c>
-      <c r="I249" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="K249" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="250" s="1" customFormat="1" ht="22.35">
-      <c r="H250" s="1">
+      <c r="I262" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="J262" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="K262" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="263" s="1" customFormat="1" ht="22.35">
+      <c r="H263" s="1">
         <v>103</v>
       </c>
-      <c r="I250" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="J250" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="K250" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="251" s="1" customFormat="1" ht="12.8">
-      <c r="H251" s="1">
+      <c r="I263" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="J263" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="K263" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="264" s="1" customFormat="1" ht="12.8">
+      <c r="H264" s="1">
         <v>104</v>
       </c>
-      <c r="I251" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="K251" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="252" s="1" customFormat="1" ht="12.8">
-      <c r="I252" s="4"/>
-      <c r="J252" s="4"/>
-    </row>
-    <row r="253" s="1" customFormat="1" ht="12.8">
-      <c r="B253" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="254" s="1" customFormat="1" ht="12.8">
-      <c r="B254" s="4"/>
-    </row>
-    <row r="255" s="1" customFormat="1" ht="12.8">
-      <c r="A255" s="4" t="s">
+      <c r="I264" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J264" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="K264" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="265" s="1" customFormat="1" ht="12.8">
+      <c r="I265" s="4"/>
+      <c r="J265" s="4"/>
+    </row>
+    <row r="266" s="1" customFormat="1" ht="12.8">
+      <c r="B266" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="267" s="1" customFormat="1" ht="12.8">
+      <c r="B267" s="4"/>
+    </row>
+    <row r="268" s="1" customFormat="1" ht="12.8">
+      <c r="A268" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="256" s="1" customFormat="1" ht="12.8">
-      <c r="H256" s="1">
+    <row r="269" s="1" customFormat="1" ht="12.8">
+      <c r="H269" s="1">
         <v>79</v>
       </c>
-      <c r="I256" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J256" s="10" t="s">
+      <c r="I269" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K256" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="257" s="1" customFormat="1" ht="12.8">
-      <c r="H257" s="1">
+      <c r="J269" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K269" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="270" s="1" customFormat="1" ht="12.8">
+      <c r="H270" s="1">
         <v>80</v>
       </c>
-      <c r="I257" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="J257" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="K257" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="258" s="1" customFormat="1" ht="43.25">
-      <c r="H258" s="1">
+      <c r="I270" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K270" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="271" s="1" customFormat="1" ht="43.25">
+      <c r="H271" s="1">
         <v>81</v>
       </c>
-      <c r="I258" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="J258" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="K258" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="259" s="1" customFormat="1" ht="22.35">
-      <c r="H259" s="1">
+      <c r="I271" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="K271" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="272" s="1" customFormat="1" ht="22.35">
+      <c r="H272" s="1">
         <v>82</v>
       </c>
-      <c r="I259" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J259" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="K259" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="260" s="1" customFormat="1" ht="43.25">
-      <c r="H260" s="1">
+      <c r="I272" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K272" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="273" s="1" customFormat="1" ht="43.25">
+      <c r="H273" s="1">
         <v>83</v>
       </c>
-      <c r="I260" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J260" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="K260" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="261" s="1" customFormat="1" ht="12.8">
-      <c r="H261" s="1">
+      <c r="I273" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="K273" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="274" s="1" customFormat="1" ht="12.8">
+      <c r="H274" s="1">
         <v>84</v>
       </c>
-      <c r="I261" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="K261" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="262" ht="12.8">
-      <c r="I262" s="4"/>
-      <c r="J262" s="4"/>
-      <c r="K262" s="1"/>
-    </row>
-    <row r="263" ht="12.8">
-      <c r="B263" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K263" s="1"/>
-    </row>
-    <row r="264" ht="12.8">
-      <c r="B264" s="4"/>
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" ht="12.8">
-      <c r="A265" s="4" t="s">
+      <c r="I274" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K274" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="275" ht="12.8">
+      <c r="I275" s="4"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" ht="12.8">
+      <c r="B276" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" ht="12.8">
+      <c r="B277" s="4"/>
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" ht="12.8">
+      <c r="A278" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" ht="12.8">
-      <c r="H266" s="1">
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" ht="12.8">
+      <c r="H279" s="1">
         <v>85</v>
       </c>
-      <c r="I266" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J266" s="10" t="s">
+      <c r="I279" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K266" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="267" ht="22.35">
-      <c r="H267" s="1">
-        <v>86</v>
-      </c>
-      <c r="I267" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="J267" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="268" ht="22.35">
-      <c r="H268" s="1">
-        <v>87</v>
-      </c>
-      <c r="I268" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="269" ht="43.25">
-      <c r="H269" s="1">
-        <v>88</v>
-      </c>
-      <c r="I269" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="270" ht="32.8">
-      <c r="H270" s="1">
-        <v>89</v>
-      </c>
-      <c r="I270" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K270" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="271" ht="22.35">
-      <c r="H271" s="1">
-        <v>90</v>
-      </c>
-      <c r="I271" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="K271" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="272" ht="22.35">
-      <c r="H272" s="1">
-        <v>91</v>
-      </c>
-      <c r="I272" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="K272" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="273" ht="12.8">
-      <c r="H273" s="1">
-        <v>92</v>
-      </c>
-      <c r="I273" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K273" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="274" ht="12.8">
-      <c r="B274" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K274" s="1"/>
-    </row>
-    <row r="276" ht="12.8">
-      <c r="A276" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" ht="12.8">
-      <c r="H277" s="1">
-        <v>74</v>
-      </c>
-      <c r="I277" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J277" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="K277" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="278" ht="32.8">
-      <c r="H278" s="1">
-        <v>75</v>
-      </c>
-      <c r="I278" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K278" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="279" ht="43.25">
-      <c r="H279" s="1">
-        <v>76</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J279" s="4" t="s">
-        <v>443</v>
+      <c r="J279" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>724</v>
+        <v>126</v>
       </c>
     </row>
     <row r="280" ht="22.35">
       <c r="H280" s="1">
+        <v>86</v>
+      </c>
+      <c r="I280" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="281" ht="22.35">
+      <c r="H281" s="1">
+        <v>87</v>
+      </c>
+      <c r="I281" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="282" ht="43.25">
+      <c r="H282" s="1">
+        <v>88</v>
+      </c>
+      <c r="I282" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J282" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="283" ht="32.8">
+      <c r="H283" s="1">
+        <v>89</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="284" ht="22.35">
+      <c r="H284" s="1">
+        <v>90</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="285" ht="22.35">
+      <c r="H285" s="1">
+        <v>91</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="J285" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="286" ht="12.8">
+      <c r="H286" s="1">
+        <v>92</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J286" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="287" ht="12.8">
+      <c r="B287" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K287" s="1"/>
+    </row>
+    <row r="289" ht="12.8">
+      <c r="A289" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K289" s="1"/>
+    </row>
+    <row r="290" ht="12.8">
+      <c r="H290" s="1">
+        <v>74</v>
+      </c>
+      <c r="I290" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="J290" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="291" ht="32.8">
+      <c r="H291" s="1">
+        <v>75</v>
+      </c>
+      <c r="I291" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="292" ht="43.25">
+      <c r="H292" s="1">
+        <v>76</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="293" ht="22.35">
+      <c r="H293" s="1">
         <v>77</v>
       </c>
-      <c r="I280" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K280" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="281" ht="32.8">
-      <c r="H281" s="1">
+      <c r="I293" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="294" ht="32.8">
+      <c r="H294" s="1">
         <v>78</v>
       </c>
-      <c r="I281" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="K281" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="282" ht="12.8">
-      <c r="I282" s="4"/>
-      <c r="J282" s="4"/>
-      <c r="K282" s="1"/>
-    </row>
-    <row r="283" ht="12.8">
-      <c r="I283" s="4"/>
-      <c r="J283" s="4"/>
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" s="1" customFormat="1" ht="12.8">
-      <c r="B284" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="285" s="1" customFormat="1" ht="12.8"/>
-    <row r="286" s="1" customFormat="1" ht="12.8">
-      <c r="A286" s="4" t="s">
+      <c r="I294" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="295" ht="12.8">
+      <c r="I295" s="4"/>
+      <c r="J295" s="4"/>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" ht="12.8">
+      <c r="I296" s="4"/>
+      <c r="J296" s="4"/>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" s="1" customFormat="1" ht="12.8">
+      <c r="B297" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" ht="12.8"/>
+    <row r="299" s="1" customFormat="1" ht="12.8">
+      <c r="A299" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="287" s="1" customFormat="1" ht="23.85">
-      <c r="H287" s="1">
+    <row r="300" s="1" customFormat="1" ht="23.85">
+      <c r="H300" s="1">
         <v>66</v>
       </c>
-      <c r="I287" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="J287" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="K287" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="288" s="1" customFormat="1" ht="22.35">
-      <c r="H288" s="1">
-        <v>67</v>
-      </c>
-      <c r="I288" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J288" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K288" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="289" s="1" customFormat="1" ht="12.8">
-      <c r="H289" s="1">
-        <v>68</v>
-      </c>
-      <c r="I289" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="J289" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="K289" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="290" s="1" customFormat="1" ht="22.35">
-      <c r="H290" s="1">
-        <v>69</v>
-      </c>
-      <c r="I290" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="J290" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K290" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="291" s="1" customFormat="1" ht="32.8">
-      <c r="H291" s="1">
-        <v>70</v>
-      </c>
-      <c r="I291" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="K291" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="292" s="1" customFormat="1" ht="32.8">
-      <c r="H292" s="1">
-        <v>71</v>
-      </c>
-      <c r="I292" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="J292" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="K292" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="293" s="1" customFormat="1" ht="22.35">
-      <c r="H293" s="1">
-        <v>72</v>
-      </c>
-      <c r="I293" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="J293" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="K293" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="294" s="1" customFormat="1" ht="22.35">
-      <c r="H294" s="1">
-        <v>73</v>
-      </c>
-      <c r="I294" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="J294" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K294" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="295" s="1" customFormat="1" ht="12.8">
-      <c r="B295" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="296" s="1" customFormat="1" ht="12.8">
-      <c r="A296" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="297" s="1" customFormat="1" ht="12.8">
-      <c r="H297" s="1">
-        <v>60</v>
-      </c>
-      <c r="I297" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="J297" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="K297" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="1" ht="43.25">
-      <c r="H298" s="1">
-        <v>61</v>
-      </c>
-      <c r="I298" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="J298" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K298" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="299" s="1" customFormat="1" ht="22.35">
-      <c r="H299" s="1">
-        <v>62</v>
-      </c>
-      <c r="I299" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="J299" s="4" t="s">
+      <c r="I300" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="K299" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="1" ht="22.35">
-      <c r="H300" s="1">
-        <v>63</v>
-      </c>
-      <c r="I300" s="4" t="s">
+      <c r="J300" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J300" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="K300" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
     </row>
     <row r="301" s="1" customFormat="1" ht="22.35">
       <c r="H301" s="1">
+        <v>67</v>
+      </c>
+      <c r="I301" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K301" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" ht="12.8">
+      <c r="H302" s="1">
+        <v>68</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="K302" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="303" s="1" customFormat="1" ht="22.35">
+      <c r="H303" s="1">
+        <v>69</v>
+      </c>
+      <c r="I303" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="K303" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="1" ht="32.8">
+      <c r="H304" s="1">
+        <v>70</v>
+      </c>
+      <c r="I304" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="K304" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="305" s="1" customFormat="1" ht="32.8">
+      <c r="H305" s="1">
+        <v>71</v>
+      </c>
+      <c r="I305" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J305" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="K305" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="306" s="1" customFormat="1" ht="22.35">
+      <c r="H306" s="1">
+        <v>72</v>
+      </c>
+      <c r="I306" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="J306" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="K306" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" ht="22.35">
+      <c r="H307" s="1">
+        <v>73</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J307" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="K307" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" ht="12.8">
+      <c r="B308" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" ht="12.8">
+      <c r="A309" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" ht="12.8">
+      <c r="H310" s="1">
+        <v>60</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="K310" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" ht="43.25">
+      <c r="H311" s="1">
+        <v>61</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="K311" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" ht="22.35">
+      <c r="H312" s="1">
+        <v>62</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="J312" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K312" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="1" ht="22.35">
+      <c r="H313" s="1">
+        <v>63</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J313" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K313" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="1" ht="22.35">
+      <c r="H314" s="1">
         <v>64</v>
       </c>
-      <c r="I301" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="J301" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="K301" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="302" ht="32.8">
-      <c r="H302" s="1">
+      <c r="I314" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="J314" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="K314" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="315" ht="32.8">
+      <c r="H315" s="1">
         <v>65</v>
       </c>
-      <c r="I302" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="J302" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K302" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="303" ht="12.8">
-      <c r="B303" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K303" s="1"/>
-    </row>
-    <row r="304" s="1" customFormat="1" ht="12.8"/>
-    <row r="305" s="1" customFormat="1" ht="12.8"/>
-    <row r="306" s="1" customFormat="1" ht="12.8">
-      <c r="A306" s="4" t="s">
+      <c r="I315" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="J315" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="316" ht="12.8">
+      <c r="B316" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K316" s="1"/>
+    </row>
+    <row r="317" s="1" customFormat="1" ht="12.8"/>
+    <row r="318" s="1" customFormat="1" ht="12.8"/>
+    <row r="319" s="1" customFormat="1" ht="12.8">
+      <c r="A319" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" ht="23.85">
-      <c r="H307" s="1">
+    <row r="320" s="1" customFormat="1" ht="23.85">
+      <c r="H320" s="1">
         <v>53</v>
       </c>
-      <c r="I307" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="J307" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="K307" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="308" s="1" customFormat="1" ht="23.85">
-      <c r="H308" s="1">
+      <c r="I320" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="J320" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="K320" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" ht="23.85">
+      <c r="H321" s="1">
         <v>54</v>
       </c>
-      <c r="I308" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="J308" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="K308" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="1" ht="23.85">
-      <c r="H309" s="1">
+      <c r="I321" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J321" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="K321" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" ht="23.85">
+      <c r="H322" s="1">
         <v>55</v>
       </c>
-      <c r="I309" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="J309" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="K309" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="310" s="1" customFormat="1" ht="23.85">
-      <c r="H310" s="1">
+      <c r="I322" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="K322" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" ht="23.85">
+      <c r="H323" s="1">
         <v>56</v>
       </c>
-      <c r="I310" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="K310" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="311" s="1" customFormat="1" ht="12.8">
-      <c r="H311" s="1">
+      <c r="I323" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="J323" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="K323" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="324" s="1" customFormat="1" ht="12.8">
+      <c r="H324" s="1">
         <v>57</v>
       </c>
-      <c r="I311" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J311" s="4" t="s">
+      <c r="I324" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K311" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="312" s="1" customFormat="1" ht="35.05">
-      <c r="H312" s="1">
+      <c r="J324" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K324" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="325" s="1" customFormat="1" ht="35.05">
+      <c r="H325" s="1">
         <v>58</v>
       </c>
-      <c r="I312" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="J312" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="K312" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="313" ht="12.8">
-      <c r="H313" s="1">
+      <c r="I325" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="J325" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="K325" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="326" ht="12.8">
+      <c r="H326" s="1">
         <v>59</v>
       </c>
-      <c r="I313" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J313" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K313" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="314" ht="12.8">
-      <c r="B314" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K314" s="1"/>
-    </row>
-    <row r="316" s="1" customFormat="1" ht="12.8"/>
-    <row r="317" s="1" customFormat="1" ht="12.8"/>
-    <row r="318" s="1" customFormat="1" ht="12.8">
-      <c r="A318" s="4" t="s">
+      <c r="I326" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J326" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="327" ht="12.8">
+      <c r="B327" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K327" s="1"/>
+    </row>
+    <row r="329" s="1" customFormat="1" ht="12.8"/>
+    <row r="330" s="1" customFormat="1" ht="12.8"/>
+    <row r="331" s="1" customFormat="1" ht="12.8">
+      <c r="A331" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="319" s="1" customFormat="1" ht="12.8">
-      <c r="H319" s="1">
+    <row r="332" s="1" customFormat="1" ht="12.8">
+      <c r="H332" s="1">
         <v>45</v>
       </c>
-      <c r="I319" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="J319" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="K319" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="1" ht="22.35">
-      <c r="H320" s="1">
+      <c r="I332" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="J332" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="K332" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="1" ht="22.35">
+      <c r="H333" s="1">
         <v>46</v>
       </c>
-      <c r="I320" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J320" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="K320" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="1" ht="32.8">
-      <c r="H321" s="1">
+      <c r="I333" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="K333" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="1" ht="32.8">
+      <c r="H334" s="1">
         <v>50</v>
       </c>
-      <c r="I321" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="J321" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="K321" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="1" ht="35.05">
-      <c r="H322" s="1">
+      <c r="I334" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="K334" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="1" ht="35.05">
+      <c r="H335" s="1">
         <v>47</v>
       </c>
-      <c r="I322" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J322" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="K322" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="1" ht="43.25">
-      <c r="H323" s="1">
+      <c r="I335" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="J335" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="K335" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="336" s="1" customFormat="1" ht="43.25">
+      <c r="H336" s="1">
         <v>48</v>
       </c>
-      <c r="I323" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="J323" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K323" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="324" ht="22.35">
-      <c r="H324" s="1">
+      <c r="I336" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="K336" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="337" ht="22.35">
+      <c r="H337" s="1">
         <v>49</v>
       </c>
-      <c r="I324" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="J324" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="325" ht="12.8">
-      <c r="B325" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K325" s="1"/>
-    </row>
-    <row r="326" s="1" customFormat="1" ht="12.8"/>
-    <row r="327" s="1" customFormat="1" ht="12.8"/>
-    <row r="328" s="1" customFormat="1" ht="12.8">
-      <c r="A328" s="4" t="s">
+      <c r="I337" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="338" ht="12.8">
+      <c r="B338" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K338" s="1"/>
+    </row>
+    <row r="339" s="1" customFormat="1" ht="12.8"/>
+    <row r="340" s="1" customFormat="1" ht="12.8"/>
+    <row r="341" s="1" customFormat="1" ht="12.8">
+      <c r="A341" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="329" s="1" customFormat="1" ht="22.35">
-      <c r="H329" s="1">
+    <row r="342" s="1" customFormat="1" ht="22.35">
+      <c r="H342" s="1">
         <v>1</v>
       </c>
-      <c r="I329" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J329" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="K329" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="330" s="1" customFormat="1" ht="22.35">
-      <c r="H330" s="1">
+      <c r="I342" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="K342" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="343" s="1" customFormat="1" ht="22.35">
+      <c r="H343" s="1">
         <v>2</v>
       </c>
-      <c r="I330" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="J330" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K330" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="331" s="1" customFormat="1" ht="32.8">
-      <c r="H331" s="1">
+      <c r="I343" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="K343" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="344" s="1" customFormat="1" ht="32.8">
+      <c r="H344" s="1">
         <v>5</v>
       </c>
-      <c r="I331" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="J331" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="K331" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="332" s="1" customFormat="1" ht="43.25">
-      <c r="H332" s="1">
+      <c r="I344" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="K344" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="345" s="1" customFormat="1" ht="43.25">
+      <c r="H345" s="1">
         <v>6</v>
       </c>
-      <c r="I332" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="J332" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="K332" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="333" s="1" customFormat="1" ht="43.25">
-      <c r="H333" s="1">
+      <c r="I345" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="K345" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="346" s="1" customFormat="1" ht="43.25">
+      <c r="H346" s="1">
         <v>212</v>
       </c>
-      <c r="I333" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="J333" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="K333" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="334" s="1" customFormat="1" ht="22.35">
-      <c r="H334" s="1">
+      <c r="I346" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="K346" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="347" s="1" customFormat="1" ht="22.35">
+      <c r="H347" s="1">
         <v>52</v>
       </c>
-      <c r="I334" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="J334" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="K334" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="335" s="1" customFormat="1" ht="74.6">
-      <c r="H335" s="1">
+      <c r="I347" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K347" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="348" s="1" customFormat="1" ht="74.6">
+      <c r="H348" s="1">
         <v>17</v>
       </c>
-      <c r="I335" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="J335" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K335" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="336" ht="12.8">
-      <c r="H336" s="1">
+      <c r="I348" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K348" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="349" ht="12.8">
+      <c r="H349" s="1">
         <v>7</v>
       </c>
-      <c r="I336" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J336" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K336" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="337" ht="12.8">
-      <c r="B337" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K337" s="1"/>
-    </row>
-    <row r="339" ht="12.8">
-      <c r="A339" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="340" ht="12.8">
-      <c r="D340" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="341" ht="22.35">
-      <c r="H341" s="1">
+      <c r="I349" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J349" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="350" ht="12.8">
+      <c r="B350" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K350" s="1"/>
+    </row>
+    <row r="352" ht="12.8">
+      <c r="A352" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="353" ht="12.8">
+      <c r="D353" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="354" ht="22.35">
+      <c r="H354" s="1">
         <v>8</v>
       </c>
-      <c r="I341" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="J341" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="K341" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="342" ht="43.25">
-      <c r="H342" s="1">
+      <c r="I354" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="J354" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="K354" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="355" ht="43.25">
+      <c r="H355" s="1">
         <v>9</v>
       </c>
-      <c r="I342" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="K342" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="343" ht="22.35">
-      <c r="B343" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H343" s="1">
+      <c r="I355" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="J355" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="K355" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="356" ht="22.35">
+      <c r="B356" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H356" s="1">
         <v>10</v>
       </c>
-      <c r="I343" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="J343" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="K343" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="346" ht="12.8">
-      <c r="A346" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H346" s="1">
+      <c r="I356" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="J356" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="K356" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="359" ht="12.8">
+      <c r="A359" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H359" s="1">
         <v>11</v>
       </c>
-      <c r="I346" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J346" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="K346" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="347" ht="12.8">
-      <c r="B347" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H347" s="1">
-        <v>12</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K347" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="348" ht="12.8">
-      <c r="B348" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H348" s="1">
-        <v>13</v>
-      </c>
-      <c r="I348" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J348" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K348" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="349" ht="12.8">
-      <c r="B349" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H349" s="1">
-        <v>14</v>
-      </c>
-      <c r="I349" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="J349" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="K349" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="350" ht="12.8">
-      <c r="B350" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="354" ht="12.8">
-      <c r="A354" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H354" s="1">
-        <v>15</v>
-      </c>
-      <c r="I354" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="K354" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="355" ht="12.8">
-      <c r="B355" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="358" ht="12.8">
-      <c r="A358" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="359" ht="12.8">
-      <c r="H359" s="1">
-        <v>16</v>
-      </c>
       <c r="I359" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="K359" t="s">
-        <v>766</v>
+        <v>791</v>
       </c>
     </row>
     <row r="360" ht="12.8">
       <c r="B360" s="1" t="s">
-        <v>141</v>
+        <v>544</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H360" s="1">
+        <v>12</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K360" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="361" ht="12.8">
+      <c r="B361" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H361" s="1">
+        <v>13</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K361" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="362" ht="12.8">
+      <c r="B362" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H362" s="1">
+        <v>14</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K362" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="363" ht="12.8">
+      <c r="B363" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="367" ht="12.8">
+      <c r="A367" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H367" s="1">
+        <v>15</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J367" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K367" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="368" ht="12.8">
+      <c r="B368" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="371" ht="12.8">
+      <c r="A371" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="372" ht="12.8">
+      <c r="H372" s="1">
+        <v>16</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J372" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K372" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="373" ht="12.8">
+      <c r="B373" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Dialog/Drama/_tutorial.xlsx
+++ b/Original/CN/Dialog/Drama/_tutorial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="767">
   <si>
     <t xml:space="preserve">version</t>
   </si>
@@ -239,15 +239,6 @@
     <t xml:space="preserve">Dangerous Water</t>
   </si>
   <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィールドエフェクト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Effect</t>
-  </si>
-  <si>
     <t xml:space="preserve">ether</t>
   </si>
   <si>
@@ -399,55 +390,6 @@
   </si>
   <si>
     <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ねえ、感じる？
-この異様な空気…何か特別な「理」が息づいている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you feel it?
-This strange air...there’s a special law at work here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">これは…そう、きっと「フィールドエフェクト」が発動しているのね。
-話には聞いていたけど、実際に経験するのは私も初めてよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes—something like a ‘Field Effect’ is pulsing through this place.
-I’ve heard about it before, but this is my first time experiencing it myself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィールドエフェクトは、現在居るマップにだけ適用される特殊なルール。
-時計の右側に、今まで見たことがないアイコンが見えるでしょ？
-このアイコンを調べれば、効果を知ることができるわ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Field Effect is a special rule that applies only to the map you’re currently on.
-See that unfamiliar icon to the right of the clock?
-If you check it, you can learn what effect is active.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">世界の理を変えるほどの力が、この場所には働いている…
-もちろん、それには相応の理由があるはずよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There’s a power here strong enough to bend the very laws of the world.
-And of course, there must be a reason for that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…気をつけて進んでね。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…Be careful as you go.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">チリンチリーン！ 
@@ -458,6 +400,12 @@
     <t xml:space="preserve">Tinkle-tinkle!
 Can you believe it?
 It's been two thousand years since you started your adventure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
   </si>
   <si>
     <t xml:space="preserve">なかなか、長生きするのね？</t>
@@ -517,6 +465,9 @@
   <si>
     <t xml:space="preserve">So...
 How about we slow things down a little from here on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
   </si>
   <si>
     <t xml:space="preserve">薬草みーつけた！</t>
@@ -1150,34 +1101,6 @@
 Your beginner adventurer period is over!</t>
   </si>
   <si>
-    <t xml:space="preserve">nerun_nadenade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">おっ、キミってば、一度も死ななかったのね？
-えらいえらい。はい、な～でな～で！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, you didn’t die even once, huh?
-Good, good. Come here, let me give you some head pats!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nerun_nadenade2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この期間にキミが死んだ回数は実に#1回…
-一体、何をしていたの？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times you died during this period is actually #1...
-What on earth were you doing? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">さすがの私も、キミみたいな冒険者は初めてよ…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even for me, I’ve never seen an adventurer quite like you...</t>
-  </si>
-  <si>
     <t xml:space="preserve">これからは死んだら
 デスペナルティが発生するから気をつけていってね。</t>
   </si>
@@ -2335,9 +2258,6 @@
     <t xml:space="preserve">危险的水</t>
   </si>
   <si>
-    <t xml:space="preserve">场地效果</t>
-  </si>
-  <si>
     <t xml:space="preserve">以太病</t>
   </si>
   <si>
@@ -2372,26 +2292,6 @@
   </si>
   <si>
     <t xml:space="preserve">世界终末之时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你感觉到了吗？
-这种诡异的气氛…有什么特别的「法则」在起作用。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这一定是…没错，是「场地效果」的影响。
-虽然从前听说过，但实际体验还是第一次。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">场地效果是仅适用于现在所在地图的特殊规则。
-看到时钟右侧那个之前没见过的图标了吗？
-调查这个图标你就能知道是什么效果了。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">足以改写世界法则的力量在此处生效…
-想必这背后定有相应的缘由。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…小心前进吧。</t>
   </si>
   <si>
     <t xml:space="preserve">叮铃！ 
@@ -2534,12 +2434,12 @@
 只要对城镇有贡献，你的对城镇的「影响力」就会提升。</t>
   </si>
   <si>
-    <t xml:space="preserve">影响力增高之后，就可以刷新委托
+    <t xml:space="preserve">影响力上升之后，就可以刷新委托
 立刻让商店进货
 大家会同意你的各种不讲道理的要求.</t>
   </si>
   <si>
-    <t xml:space="preserve">而·且·呢…！</t>
+    <t xml:space="preserve">而・且・呢…！</t>
   </si>
   <si>
     <t xml:space="preserve">影响力还能当作货币使用。
@@ -2591,7 +2491,7 @@
   </si>
   <si>
     <t xml:space="preserve">装备被腐蚀之后会有-1，-2这样的减益
-性能也会降低。</t>
+性能也会下降。</t>
   </si>
   <si>
     <t xml:space="preserve">在这个世界里，有只要接触就会喷一身酸液
@@ -2707,17 +2607,6 @@
 你的冒险者新手保护期结束咯～！</t>
   </si>
   <si>
-    <t xml:space="preserve">哦，你居然一次也没死过呢？
-了不起。来，摸摸头～摸摸头～！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在这段时间里你死了#1次…
-你到底在搞什么啊？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">就算是我都从没见过你这样的冒险者…</t>
-  </si>
-  <si>
     <t xml:space="preserve">接下来如果死掉
 就会有惩罚了，要小心哦。</t>
   </si>
@@ -2791,7 +2680,7 @@
   </si>
   <si>
     <t xml:space="preserve">盟约之石会随着出货和时间经过自动成长。
-…不过需要注意的是，盟约之石等级提升之后也会引起一些更加危险的家伙的注意…也就是说可能会有更强的敌人前来袭击。</t>
+…不过需要注意的是，盟约之石等级上升之后也会引起一些更加危险的家伙的注意…也就是说可能会有更强的敌人前来袭击。</t>
   </si>
   <si>
     <t xml:space="preserve">如果对出现在据点里的敌人感到棘手的话。
@@ -2994,7 +2883,7 @@
     <t xml:space="preserve">你刚才干了坏事吧…？</t>
   </si>
   <si>
-    <t xml:space="preserve">唉…你的善恶值降低了。
+    <t xml:space="preserve">唉…你的善恶值下降了。
 在这个世界作恶就会降低善恶值
 善恶值到达0以下就会成为犯罪者。
 …成为犯罪者的话是很难活下去的。</t>
@@ -3021,7 +2910,7 @@
 真是看错你了。</t>
   </si>
   <si>
-    <t xml:space="preserve">…哼，善恶值降到0以下，你就会被通缉了。
+    <t xml:space="preserve">…哼，善恶值降到0以下，你就变成通缉犯了。
 守卫会追赶你，商人们会拒绝与你交易，妹们也会对你冷眼相待
 被当作社会的敌人，度过悲惨地一生！</t>
   </si>
@@ -3152,7 +3041,7 @@
 不过比在床上睡觉效果要差就是了。</t>
   </si>
   <si>
-    <t xml:space="preserve">休息中体力和魔力的自然恢复量也会提升
+    <t xml:space="preserve">休息中体力和魔力的自然恢复量也会上升
 所以战斗后也可以靠休息能力来恢复。
 但如果此时还处于过劳和饥饿状态
 可是不会进行自然恢复的哟。</t>
@@ -3610,12 +3499,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="H39" sqref="H39"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -3672,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" ht="12.8">
@@ -3695,7 +3584,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3725,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="12.8">
@@ -3748,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.8">
@@ -3771,7 +3660,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" ht="12.8">
@@ -3817,7 +3706,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="12.8">
@@ -3840,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" ht="12.8">
@@ -3863,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3893,7 +3782,7 @@
         <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" ht="12.8">
@@ -3916,7 +3805,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" ht="12.8">
@@ -3962,7 +3851,7 @@
         <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -4008,7 +3897,7 @@
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" ht="12.8">
@@ -4031,7 +3920,7 @@
         <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" ht="12.8">
@@ -4054,7 +3943,7 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" ht="12.8">
@@ -4077,7 +3966,7 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" ht="13.8">
@@ -4100,7 +3989,7 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" ht="13.8">
@@ -4123,7 +4012,7 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" ht="13.8">
@@ -4146,12 +4035,12 @@
         <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" ht="13.8">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8">
       <c r="B26" s="1">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -4162,19 +4051,19 @@
       <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" ht="12.8">
       <c r="B27" s="1">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -4185,43 +4074,51 @@
       <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" ht="12.8">
-      <c r="B28" s="1">
-        <v>850</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>851</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H28" t="s">
-        <v>578</v>
-      </c>
+      <c r="H28" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" ht="12.8">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>8</v>
@@ -4239,7 +4136,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4252,7 +4149,7 @@
     <row r="30" ht="12.8">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>8</v>
@@ -4266,24 +4163,17 @@
       <c r="F30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+        <v>559</v>
+      </c>
     </row>
     <row r="31" ht="12.8">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
@@ -4297,17 +4187,24 @@
       <c r="F31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>581</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" ht="12.8">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>8</v>
@@ -4321,24 +4218,17 @@
       <c r="F32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="10" t="s">
         <v>92</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+        <v>561</v>
+      </c>
     </row>
     <row r="33" ht="12.8">
       <c r="A33" s="4"/>
       <c r="B33" s="4">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
@@ -4356,13 +4246,13 @@
         <v>95</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" ht="12.8">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -4376,17 +4266,24 @@
       <c r="F34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>584</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
     <row r="35" ht="12.8">
       <c r="A35" s="4"/>
       <c r="B35" s="4">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>8</v>
@@ -4404,7 +4301,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4415,39 +4312,31 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" ht="12.8">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4">
-        <v>890</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="1">
+        <v>899</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" ht="12.8">
       <c r="B37" s="1">
-        <v>899</v>
+        <v>950</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -4455,22 +4344,22 @@
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" ht="12.8">
       <c r="B38" s="1">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -4481,37 +4370,14 @@
       <c r="E38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" ht="12.8">
-      <c r="B39" s="1">
-        <v>990</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4530,12 +4396,12 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K373"/>
+  <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K372" sqref="K372"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K359" sqref="K359"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -4554,19 +4420,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -4587,20 +4453,20 @@
     <row r="2" ht="12.8">
       <c r="H2" s="1">
         <f>MAX(H4:H1048576)</f>
-        <v>327</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" ht="12.8">
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="12.8">
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -4608,759 +4474,755 @@
     </row>
     <row r="7" ht="12.8">
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" ht="12.8">
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" ht="12.8">
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" ht="12.8">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" ht="35.05">
+      <c r="H13" s="1">
+        <v>220</v>
+      </c>
       <c r="I13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8">
+      <c r="H14" s="1">
+        <v>221</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8">
+      <c r="H15" s="1">
+        <v>222</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" ht="22.35">
-      <c r="H14" s="1">
-        <v>233</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="J15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="15" ht="23.85">
-      <c r="H15" s="1">
-        <v>234</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>131</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" ht="35.05">
       <c r="H16" s="1">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" ht="35.05">
+      <c r="H17" s="1">
+        <v>224</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K17" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" ht="46.25">
+      <c r="H18" s="1">
+        <v>225</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" ht="23.85">
-      <c r="H17" s="1">
-        <v>236</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="J18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K18" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" ht="22.35">
+      <c r="H19" s="1">
+        <v>226</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" ht="22.35">
-      <c r="H18" s="1">
-        <v>327</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="J19" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K19" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" ht="12.8">
+      <c r="H20" s="1">
+        <v>227</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8">
+      <c r="H21" s="1">
+        <v>228</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="19" ht="12.8">
-      <c r="I19" s="4"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" ht="12.8">
-      <c r="I20" s="4"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" ht="12.8">
-      <c r="B21" s="4" t="s">
+      <c r="J21" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" ht="12.8">
-      <c r="A22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" ht="35.05">
-      <c r="H23" s="1">
-        <v>220</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="K21" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="22" ht="23.85">
+      <c r="H22" s="1">
+        <v>229</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>594</v>
-      </c>
+      <c r="K22" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8">
+      <c r="B23" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" ht="12.8">
-      <c r="H24" s="1">
-        <v>221</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" ht="12.8">
       <c r="H25" s="1">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" ht="35.05">
       <c r="H26" s="1">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" ht="35.05">
       <c r="H27" s="1">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" ht="46.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" ht="23.85">
       <c r="H28" s="1">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="29" ht="22.35">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" ht="35.05">
       <c r="H29" s="1">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="30" ht="12.8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" ht="34.3">
       <c r="H30" s="1">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" ht="12.8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="31" ht="35.05">
       <c r="H31" s="1">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" ht="23.85">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" ht="12.8">
       <c r="H32" s="1">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" ht="12.8">
-      <c r="B33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="1">
+        <v>208</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="34" ht="12.8">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" ht="12.8">
-      <c r="H35" s="1">
-        <v>200</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="36" ht="35.05">
-      <c r="H36" s="1">
-        <v>201</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="B35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" ht="12.8">
+      <c r="A36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" ht="23.85">
+      <c r="H37" s="1">
+        <v>210</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="37" ht="35.05">
-      <c r="H37" s="1">
-        <v>202</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="K37" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" ht="12.8">
+      <c r="H38" s="1">
+        <v>211</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="38" ht="23.85">
-      <c r="H38" s="1">
-        <v>203</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="J38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="K38" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" ht="12.8">
+      <c r="I39" s="4"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" ht="12.8">
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" ht="12.8">
+      <c r="B41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" ht="12.8">
+      <c r="B42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="12.8">
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="23.85">
+      <c r="H44" s="1">
+        <v>193</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="39" ht="35.05">
-      <c r="H39" s="1">
-        <v>204</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="J44" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="K44" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="35.05">
+      <c r="H45" s="1">
+        <v>194</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="40" ht="34.3">
-      <c r="H40" s="1">
-        <v>205</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="J45" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="K45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="23.85">
+      <c r="H46" s="1">
+        <v>195</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="41" ht="35.05">
-      <c r="H41" s="1">
-        <v>206</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="J46" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="K46" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="32.8">
+      <c r="H47" s="1">
+        <v>196</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="42" ht="12.8">
-      <c r="H42" s="1">
-        <v>207</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="J47" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="K47" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="35.05">
+      <c r="H48" s="1">
+        <v>197</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="43" ht="12.8">
-      <c r="H43" s="1">
-        <v>208</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" ht="12.8">
-      <c r="B44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" ht="12.8">
-      <c r="B45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" ht="12.8">
-      <c r="A46" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" ht="23.85">
-      <c r="H47" s="1">
-        <v>210</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="K48" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="46.25">
+      <c r="H49" s="1">
+        <v>198</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="48" ht="12.8">
-      <c r="H48" s="1">
-        <v>211</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="J49" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="K49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="23.85">
+      <c r="H50" s="1">
+        <v>199</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="49" ht="12.8">
-      <c r="I49" s="4"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" ht="12.8">
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" ht="12.8">
-      <c r="B51" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="J50" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="12.8">
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" ht="12.8">
-      <c r="B52" s="4"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="12.8">
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="1"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="12.8">
-      <c r="A53" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="23.85">
-      <c r="H54" s="1">
-        <v>193</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J54" s="10" t="s">
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" ht="12.8">
+      <c r="B54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="12.8">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="12.8">
+      <c r="H56" s="1">
+        <v>184</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K54" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="35.05">
-      <c r="H55" s="1">
-        <v>194</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="J56" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="K56" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="35.05">
+      <c r="H57" s="1">
+        <v>185</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K55" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="23.85">
-      <c r="H56" s="1">
-        <v>195</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="J57" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="12.8">
+      <c r="H58" s="1">
+        <v>186</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K56" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="32.8">
-      <c r="H57" s="1">
-        <v>196</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="J58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="K58" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="23.85">
+      <c r="H59" s="1">
+        <v>187</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K57" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="35.05">
-      <c r="H58" s="1">
-        <v>197</v>
-      </c>
-      <c r="I58" s="4" t="s">
+      <c r="J59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="K59" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="12.8">
+      <c r="H60" s="1">
+        <v>188</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="46.25">
+      <c r="H61" s="1">
+        <v>189</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K58" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="46.25">
-      <c r="H59" s="1">
-        <v>198</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="J61" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="K61" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="12.8">
+      <c r="H62" s="1">
+        <v>190</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="23.85">
+      <c r="H63" s="1">
+        <v>191</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K59" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="23.85">
-      <c r="H60" s="1">
-        <v>199</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="J63" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="K63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="12.8">
+      <c r="H64" s="1">
+        <v>192</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K60" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="12.8">
-      <c r="I61" s="4"/>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="12.8">
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="12.8">
-      <c r="B63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" ht="12.8">
-      <c r="B64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="1"/>
+      <c r="J64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K64" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="12.8">
-      <c r="A65" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="12.8">
-      <c r="H66" s="1">
-        <v>184</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K66" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="35.05">
-      <c r="H67" s="1">
-        <v>185</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K67" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="12.8">
-      <c r="H68" s="1">
-        <v>186</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K68" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="23.85">
-      <c r="H69" s="1">
-        <v>187</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K69" t="s">
-        <v>622</v>
-      </c>
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" ht="12.8">
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" ht="12.8">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" ht="12.8">
+      <c r="K69" s="1"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="12.8">
       <c r="H70" s="1">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>127</v>
+        <v>190</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="K70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="46.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="22.35">
       <c r="H71" s="1">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="I71" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="32.8">
+      <c r="H72" s="1">
+        <v>176</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K72" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="12.8">
+      <c r="H73" s="1">
+        <v>177</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="K73" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="32.8">
+      <c r="H74" s="1">
+        <v>178</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K71" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="12.8">
-      <c r="H72" s="1">
-        <v>190</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="23.85">
-      <c r="H73" s="1">
-        <v>191</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J73" s="10" t="s">
+      <c r="K74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="22.35">
+      <c r="H75" s="1">
+        <v>179</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="K73" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="12.8">
-      <c r="H74" s="1">
-        <v>192</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J74" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K74" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="12.8">
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="12.8">
+      <c r="K75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" ht="12.8">
       <c r="B76" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" ht="12.8">
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" ht="12.8">
-      <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="78" ht="22.35">
+      <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
       <c r="K78" s="1"/>
@@ -5368,252 +5230,340 @@
     <row r="79" ht="12.8">
       <c r="K79" s="1"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12.8">
+    <row r="80" ht="12.8">
       <c r="H80" s="1">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J80" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="K80" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" ht="35.05">
+      <c r="H81" s="1">
+        <v>181</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K80" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="22.35">
-      <c r="H81" s="1">
-        <v>175</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="J81" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="K81" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="82" ht="23.85">
+      <c r="H82" s="1">
+        <v>182</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K81" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" ht="32.8">
-      <c r="H82" s="1">
-        <v>176</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="83" ht="35.05">
+      <c r="H83" s="1">
+        <v>183</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K82" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" ht="12.8">
-      <c r="H83" s="1">
-        <v>177</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="J83" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="K83" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="84" ht="12.8">
+      <c r="B84" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="12.8">
+      <c r="A87" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="12.8"/>
+    <row r="89" s="1" customFormat="1" ht="12.8">
+      <c r="H89" s="1">
+        <v>22</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K83" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="32.8">
-      <c r="H84" s="1">
-        <v>178</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="J89" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="K89" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="32.8">
+      <c r="H90" s="1">
+        <v>23</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K84" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="22.35">
-      <c r="H85" s="1">
-        <v>179</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J85" s="4" t="s">
+      <c r="K90" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="32.8">
+      <c r="H91" s="1">
+        <v>24</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K85" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="86" ht="12.8">
-      <c r="B86" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="88" ht="22.35">
-      <c r="A88" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K88" s="1"/>
-    </row>
-    <row r="89" ht="12.8">
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" ht="12.8">
-      <c r="H90" s="1">
-        <v>180</v>
-      </c>
-      <c r="I90" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J90" s="10" t="s">
+      <c r="K91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="12.8">
+      <c r="H92" s="1">
+        <v>25</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="91" ht="35.05">
-      <c r="H91" s="1">
-        <v>181</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="J92" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J91" s="10" t="s">
+      <c r="K92" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="12.8">
+      <c r="B93" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" ht="15.65" customHeight="1">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" ht="12.8">
+      <c r="A95" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" ht="23.85">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="1">
+        <v>169</v>
+      </c>
+      <c r="I96" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="92" ht="23.85">
-      <c r="H92" s="1">
-        <v>182</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="J96" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="K96" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" ht="13.8">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="1">
+        <v>170</v>
+      </c>
+      <c r="I97" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="93" ht="35.05">
-      <c r="H93" s="1">
-        <v>183</v>
-      </c>
-      <c r="I93" s="4" t="s">
+      <c r="J97" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="K97" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="98" ht="23.85">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="1">
+        <v>171</v>
+      </c>
+      <c r="I98" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="94" ht="12.8">
-      <c r="B94" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="97" s="1" customFormat="1" ht="12.8">
-      <c r="A97" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" ht="12.8"/>
-    <row r="99" s="1" customFormat="1" ht="12.8">
+      <c r="J98" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="99" ht="46.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="1">
-        <v>22</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>223</v>
+        <v>172</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K99" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="32.8">
+        <v>225</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="100" ht="35.05">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
       <c r="H100" s="1">
-        <v>23</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J100" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I100" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="K100" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" ht="32.8">
-      <c r="H101" s="1">
-        <v>24</v>
-      </c>
-      <c r="I101" s="4" t="s">
+      <c r="J100" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="K100" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="101" ht="13.8">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" ht="12.8">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="12.8">
+      <c r="A103" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="13.8">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="1">
+        <v>155</v>
+      </c>
+      <c r="I104" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="K101" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="12.8">
-      <c r="H102" s="1">
-        <v>25</v>
-      </c>
-      <c r="I102" s="4" t="s">
+      <c r="J104" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="J102" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K102" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="12.8">
-      <c r="B103" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" ht="15.65" customHeight="1">
-      <c r="J104" s="4"/>
-    </row>
-    <row r="105" ht="12.8">
-      <c r="A105" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="K104" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="23.85">
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-    </row>
-    <row r="106" ht="23.85">
+      <c r="H105" s="1">
+        <v>156</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="35.05">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -5622,19 +5572,19 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="1">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="107" ht="13.8">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="23.85">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -5643,19 +5593,19 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="1">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="108" ht="23.85">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="35.05">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5664,19 +5614,19 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="1">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="109" ht="46.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="35.05">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -5685,80 +5635,89 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="1">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="110" ht="35.05">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="12.8">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="1">
-        <v>173</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="111" ht="13.8">
-      <c r="A111" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="12.8">
+      <c r="A111" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="10"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
-    <row r="112" ht="12.8">
+    <row r="112" s="1" customFormat="1" ht="13.8">
       <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="12.8">
-      <c r="A113" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="H112" s="1">
+        <v>161</v>
+      </c>
+      <c r="I112" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="23.85">
+      <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-    </row>
-    <row r="114" s="1" customFormat="1" ht="13.8">
+      <c r="H113" s="1">
+        <v>162</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="35.05">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5767,16 +5726,16 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="1">
-        <v>155</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>241</v>
+        <v>163</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" ht="23.85">
@@ -5788,61 +5747,47 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="1">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="35.05">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="12.8">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="1">
-        <v>157</v>
-      </c>
-      <c r="I116" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="117" s="1" customFormat="1" ht="23.85">
-      <c r="A117" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="12.8">
+      <c r="A117" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="1">
-        <v>158</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="118" s="1" customFormat="1" ht="35.05">
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="13.8">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5851,19 +5796,19 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="1">
-        <v>159</v>
-      </c>
-      <c r="I118" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J118" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="J118" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="K118" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="119" s="1" customFormat="1" ht="35.05">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="13.8">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5872,89 +5817,89 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="1">
-        <v>160</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>251</v>
+        <v>166</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="120" s="1" customFormat="1" ht="12.8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="23.85">
       <c r="A120" s="4"/>
-      <c r="B120" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-    </row>
-    <row r="121" s="1" customFormat="1" ht="12.8">
-      <c r="A121" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="H120" s="1">
+        <v>167</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="23.85">
+      <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-    </row>
-    <row r="122" s="1" customFormat="1" ht="13.8">
+      <c r="H121" s="1">
+        <v>168</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="12.8">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
-      <c r="H122" s="1">
-        <v>161</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="J122" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="123" s="1" customFormat="1" ht="23.85">
-      <c r="A123" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="12.8">
+      <c r="A123" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="1">
-        <v>162</v>
-      </c>
-      <c r="I123" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="J123" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="35.05">
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="23.85">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -5963,19 +5908,19 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="1">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="125" s="1" customFormat="1" ht="23.85">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="35.05">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5984,47 +5929,61 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="1">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="126" s="1" customFormat="1" ht="12.8">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="46.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" s="1" customFormat="1" ht="12.8">
-      <c r="A127" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H126" s="1">
+        <v>118</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="35.05">
+      <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-    </row>
-    <row r="128" s="1" customFormat="1" ht="13.8">
+      <c r="H127" s="1">
+        <v>119</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="23.85">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -6033,40 +5992,33 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="1">
-        <v>165</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>261</v>
+        <v>120</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" ht="13.8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="12.8">
       <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
-      <c r="H129" s="1">
-        <v>166</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J129" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K129" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" s="1" customFormat="1" ht="23.85">
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="12.8">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6074,69 +6026,67 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="1">
-        <v>167</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" ht="23.85">
-      <c r="A131" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="22.35">
+      <c r="A131" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="1">
-        <v>168</v>
-      </c>
-      <c r="I131" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="J131" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" ht="12.8">
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="13.8">
       <c r="A132" s="4"/>
-      <c r="B132" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-    </row>
-    <row r="133" s="1" customFormat="1" ht="12.8">
-      <c r="A133" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="H132" s="1">
+        <v>121</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="35.05">
+      <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" s="1" customFormat="1" ht="23.85">
+      <c r="H133" s="1">
+        <v>122</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="35.05">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -6145,19 +6095,19 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="1">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I134" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="J134" s="10" t="s">
         <v>268</v>
       </c>
+      <c r="J134" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="K134" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" ht="35.05">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="23.85">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6166,19 +6116,19 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I135" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="J135" s="10" t="s">
         <v>270</v>
       </c>
+      <c r="J135" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="K135" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="136" s="1" customFormat="1" ht="46.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="23.85">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6187,19 +6137,19 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="1">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I136" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="J136" s="10" t="s">
         <v>272</v>
       </c>
+      <c r="J136" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="K136" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" ht="35.05">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="22.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -6208,19 +6158,19 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="1">
-        <v>119</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="J137" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I137" s="4" t="s">
         <v>274</v>
       </c>
+      <c r="J137" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="K137" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" ht="23.85">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="12.8">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6228,23 +6178,14 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="1">
-        <v>120</v>
-      </c>
-      <c r="I138" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="J138" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>662</v>
-      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
     </row>
     <row r="139" s="1" customFormat="1" ht="12.8">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -6269,7 +6210,7 @@
     </row>
     <row r="141" s="1" customFormat="1" ht="22.35">
       <c r="A141" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6281,7 +6222,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" s="1" customFormat="1" ht="13.8">
+    <row r="142" s="1" customFormat="1" ht="23.85">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -6290,19 +6231,19 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="1">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I142" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="J142" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="J142" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="K142" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" ht="35.05">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="23.85">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -6311,19 +6252,19 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="1">
-        <v>122</v>
-      </c>
-      <c r="I143" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I143" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="J143" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J143" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="K143" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" ht="35.05">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="12.8">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -6331,41 +6272,25 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="1">
-        <v>123</v>
-      </c>
-      <c r="I144" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="145" s="1" customFormat="1" ht="23.85">
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="12.8">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="1">
-        <v>124</v>
-      </c>
-      <c r="I145" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="146" s="1" customFormat="1" ht="23.85">
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="12.8">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -6373,41 +6298,25 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="1">
-        <v>125</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="147" s="1" customFormat="1" ht="22.35">
-      <c r="A147" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="12.8">
+      <c r="A147" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="1">
-        <v>126</v>
-      </c>
-      <c r="I147" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="148" s="1" customFormat="1" ht="12.8">
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="13.8">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -6415,25 +6324,41 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-    </row>
-    <row r="149" s="1" customFormat="1" ht="12.8">
+      <c r="H148" s="1">
+        <v>129</v>
+      </c>
+      <c r="I148" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J148" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="23.85">
       <c r="A149" s="4"/>
-      <c r="B149" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-    </row>
-    <row r="150" s="1" customFormat="1" ht="12.8">
+      <c r="H149" s="1">
+        <v>130</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="23.85">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -6441,25 +6366,41 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-    </row>
-    <row r="151" s="1" customFormat="1" ht="22.35">
-      <c r="A151" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="H150" s="1">
+        <v>131</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="23.85">
+      <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-    </row>
-    <row r="152" s="1" customFormat="1" ht="23.85">
+      <c r="H151" s="1">
+        <v>132</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="35.05">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -6468,107 +6409,94 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="1">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I152" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="J152" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J152" s="10" t="s">
-        <v>290</v>
-      </c>
       <c r="K152" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="153" s="1" customFormat="1" ht="23.85">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="35.05">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="4" t="s">
-        <v>291</v>
-      </c>
+      <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="1">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="J153" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" ht="23.85">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="1">
-        <v>231</v>
-      </c>
-      <c r="I154" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>296</v>
+        <v>135</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="22.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="23.85">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="4" t="s">
-        <v>294</v>
-      </c>
+      <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="1">
-        <v>232</v>
-      </c>
-      <c r="I155" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>298</v>
+        <v>136</v>
+      </c>
+      <c r="I155" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="23.85">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="12.8">
       <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="1">
-        <v>128</v>
-      </c>
-      <c r="I156" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>673</v>
-      </c>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
     </row>
     <row r="157" s="1" customFormat="1" ht="12.8">
       <c r="A157" s="4"/>
@@ -6583,10 +6511,10 @@
       <c r="K157" s="4"/>
     </row>
     <row r="158" s="1" customFormat="1" ht="12.8">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="A158" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -6596,7 +6524,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="12.8">
+    <row r="159" s="1" customFormat="1" ht="23.85">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -6604,23 +6532,39 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="12.8">
-      <c r="A160" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="H159" s="1">
+        <v>137</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="13.8">
+      <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
+      <c r="H160" s="1">
+        <v>138</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J160" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="161" s="1" customFormat="1" ht="13.8">
       <c r="A161" s="4"/>
@@ -6631,19 +6575,19 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="1">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I161" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J161" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="J161" s="10" t="s">
-        <v>302</v>
-      </c>
       <c r="K161" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="23.85">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="35.05">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -6652,16 +6596,16 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I162" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J162" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="K162" s="4" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" ht="23.85">
@@ -6673,19 +6617,19 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="1">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I163" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J163" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="K163" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="23.85">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="35.05">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -6694,61 +6638,47 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="1">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I164" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J164" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="K164" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="35.05">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="12.8">
       <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="1">
-        <v>133</v>
-      </c>
-      <c r="I165" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="35.05">
-      <c r="A166" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="12.8">
+      <c r="A166" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="1">
-        <v>134</v>
-      </c>
-      <c r="I166" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="23.85">
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="13.8">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6757,19 +6687,19 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="1">
-        <v>135</v>
-      </c>
-      <c r="I167" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>314</v>
+        <v>143</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="23.85">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="35.05">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6778,33 +6708,40 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="1">
-        <v>136</v>
-      </c>
-      <c r="I168" s="14" t="s">
-        <v>315</v>
+        <v>144</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="12.8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="35.05">
       <c r="A169" s="4"/>
-      <c r="B169" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="12.8">
+      <c r="H169" s="1">
+        <v>145</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="35.05">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6812,25 +6749,41 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="12.8">
-      <c r="A171" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H170" s="1">
+        <v>146</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="46.25">
+      <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="23.85">
+      <c r="H171" s="1">
+        <v>147</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="12.8">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6838,20 +6791,11 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="1">
-        <v>137</v>
-      </c>
-      <c r="I172" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="J172" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="13.8">
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="12.8">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6859,62 +6803,39 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="1">
-        <v>138</v>
-      </c>
-      <c r="I173" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="J173" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="K173" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="13.8">
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="12.8">
       <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="1">
-        <v>139</v>
-      </c>
-      <c r="I174" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="J174" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="35.05">
-      <c r="A175" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="12.8">
+      <c r="A175" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="1">
-        <v>140</v>
-      </c>
-      <c r="I175" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="J175" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="K175" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="23.85">
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="12.8">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6923,19 +6844,19 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="1">
-        <v>141</v>
-      </c>
-      <c r="I176" s="12" t="s">
-        <v>325</v>
+        <v>148</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="J176" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="35.05">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="12.8">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6944,47 +6865,61 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="1">
-        <v>142</v>
-      </c>
-      <c r="I177" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J177" s="10" t="s">
-        <v>328</v>
+        <v>149</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="12.8">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="32.8">
       <c r="A178" s="4"/>
-      <c r="B178" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="12.8">
-      <c r="A179" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="H178" s="1">
+        <v>150</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="32.8">
+      <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="13.8">
+      <c r="H179" s="1">
+        <v>151</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="43.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6993,19 +6928,19 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="1">
-        <v>143</v>
-      </c>
-      <c r="I180" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="J180" s="10" t="s">
-        <v>330</v>
+        <v>152</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="35.05">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="32.8">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7014,19 +6949,19 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="1">
-        <v>144</v>
-      </c>
-      <c r="I181" s="12" t="s">
-        <v>331</v>
+        <v>153</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="35.05">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="182" ht="32.8">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7035,604 +6970,524 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="1">
-        <v>145</v>
-      </c>
-      <c r="I182" s="12" t="s">
-        <v>333</v>
+        <v>154</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="35.05">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="12.8">
       <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="1">
-        <v>146</v>
-      </c>
-      <c r="I183" s="12" t="s">
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="12.8">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="12.8">
+      <c r="A185" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="12.8"/>
+    <row r="187" s="1" customFormat="1" ht="12.8">
+      <c r="H187" s="1">
+        <v>105</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J187" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K187" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="22.35">
+      <c r="H188" s="1">
+        <v>106</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J188" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="J183" s="4" t="s">
+      <c r="K188" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="32.8">
+      <c r="H189" s="1">
+        <v>107</v>
+      </c>
+      <c r="I189" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="K183" s="4" t="s">
+      <c r="J189" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="K189" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="32.8">
+      <c r="H190" s="1">
+        <v>108</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="K190" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="22.35">
+      <c r="H191" s="1">
+        <v>109</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K191" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="12.8">
+      <c r="B192" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="12.8">
+      <c r="A193" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="12.8"/>
+    <row r="195" s="1" customFormat="1" ht="12.8">
+      <c r="H195" s="1">
+        <v>110</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J195" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="K195" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="23.85">
+      <c r="H196" s="1">
+        <v>111</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J196" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="K196" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="23.85">
+      <c r="H197" s="1">
+        <v>112</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J197" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K197" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="46.25">
+      <c r="H198" s="1">
+        <v>113</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J198" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="K198" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="23.85">
+      <c r="H199" s="1">
+        <v>114</v>
+      </c>
+      <c r="I199" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="K199" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="200" ht="23.85">
+      <c r="H200" s="1">
+        <v>115</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J200" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="12.8">
+      <c r="B201" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="12.8">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="22.35">
+      <c r="A203" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="12.8"/>
+    <row r="205" s="1" customFormat="1" ht="12.8">
+      <c r="H205" s="1">
+        <v>26</v>
+      </c>
+      <c r="I205" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="32.8">
+      <c r="H206" s="1">
+        <v>27</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K206" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="22.35">
+      <c r="H207" s="1">
+        <v>28</v>
+      </c>
+      <c r="I207" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J207" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K207" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="64.15">
+      <c r="H208" s="1">
+        <v>29</v>
+      </c>
+      <c r="I208" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J208" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K208" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="32.8">
+      <c r="H209" s="1">
+        <v>30</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J209" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K209" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="12.8">
+      <c r="H210" s="1">
+        <v>31</v>
+      </c>
+      <c r="I210" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J210" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K210" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="12.8">
+      <c r="H211" s="1">
+        <v>32</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K211" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="22.35">
+      <c r="H212" s="1">
+        <v>33</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K212" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="213" ht="12.8">
+      <c r="H213" s="1">
+        <v>34</v>
+      </c>
+      <c r="I213" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J213" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="214" ht="12.8">
+      <c r="B214" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" ht="15.65" customHeight="1"/>
+    <row r="216" ht="15.65" customHeight="1"/>
+    <row r="217" ht="15.65" customHeight="1"/>
+    <row r="218" ht="12.8">
+      <c r="A218" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" ht="12.8">
+      <c r="H220" s="1">
+        <v>35</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J220" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="K220" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="221" ht="12.8">
+      <c r="B221" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H221" s="1">
+        <v>36</v>
+      </c>
+      <c r="I221" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J221" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="K221" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="222" ht="12.8">
+      <c r="B222" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H222" s="1">
+        <v>37</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K222" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="184" s="1" customFormat="1" ht="46.25">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="1">
-        <v>147</v>
-      </c>
-      <c r="I184" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="J184" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="K184" s="4" t="s">
+    <row r="223" ht="12.8">
+      <c r="I223" s="4"/>
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" ht="12.8">
+      <c r="A224" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" ht="22.35">
+      <c r="H225" s="1">
+        <v>38</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K225" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="185" s="1" customFormat="1" ht="12.8">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="12.8">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="12.8">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="12.8">
-      <c r="A188" s="4" t="s">
+    <row r="226" s="1" customFormat="1" ht="22.35">
+      <c r="H226" s="1">
         <v>39</v>
       </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="12.8">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="1">
-        <v>148</v>
-      </c>
-      <c r="I189" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J189" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="I226" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K226" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" ht="12.8">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="1">
-        <v>149</v>
-      </c>
-      <c r="I190" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="J190" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K190" s="4" t="s">
+    <row r="227" ht="22.35">
+      <c r="H227" s="1">
+        <v>40</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K227" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="191" s="1" customFormat="1" ht="32.8">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="1">
-        <v>150</v>
-      </c>
-      <c r="I191" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J191" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K191" s="4" t="s">
+    <row r="228" ht="22.35">
+      <c r="H228" s="1">
+        <v>41</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K228" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="192" s="1" customFormat="1" ht="32.8">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="1">
-        <v>151</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J192" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="K192" s="4" t="s">
+    <row r="229" ht="22.35">
+      <c r="H229" s="1">
+        <v>42</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K229" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="193" s="1" customFormat="1" ht="43.25">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="1">
-        <v>152</v>
-      </c>
-      <c r="I193" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J193" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="K193" s="4" t="s">
+    <row r="230" ht="32.8">
+      <c r="H230" s="1">
+        <v>43</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K230" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="194" s="1" customFormat="1" ht="32.8">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="1">
-        <v>153</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="K194" s="4" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="195" ht="32.8">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="1">
-        <v>154</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="K195" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="12.8">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="12.8">
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="12.8">
-      <c r="A198" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" s="1" customFormat="1" ht="12.8"/>
-    <row r="200" s="1" customFormat="1" ht="12.8">
-      <c r="H200" s="1">
-        <v>105</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="K200" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="22.35">
-      <c r="H201" s="1">
-        <v>106</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K201" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="32.8">
-      <c r="H202" s="1">
-        <v>107</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J202" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="K202" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="32.8">
-      <c r="H203" s="1">
-        <v>108</v>
-      </c>
-      <c r="I203" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="J203" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K203" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="22.35">
-      <c r="H204" s="1">
-        <v>109</v>
-      </c>
-      <c r="I204" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="J204" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="K204" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="12.8">
-      <c r="B205" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="12.8">
-      <c r="A206" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="12.8"/>
-    <row r="208" s="1" customFormat="1" ht="12.8">
-      <c r="H208" s="1">
-        <v>110</v>
-      </c>
-      <c r="I208" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J208" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="K208" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="23.85">
-      <c r="H209" s="1">
-        <v>111</v>
-      </c>
-      <c r="I209" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="J209" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K209" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="23.85">
-      <c r="H210" s="1">
-        <v>112</v>
-      </c>
-      <c r="I210" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="J210" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K210" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="46.25">
-      <c r="H211" s="1">
-        <v>113</v>
-      </c>
-      <c r="I211" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="J211" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="K211" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="212" s="1" customFormat="1" ht="23.85">
-      <c r="H212" s="1">
-        <v>114</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="J212" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K212" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="213" ht="23.85">
-      <c r="H213" s="1">
-        <v>115</v>
-      </c>
-      <c r="I213" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="J213" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="214" s="1" customFormat="1" ht="12.8">
-      <c r="B214" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="215" s="1" customFormat="1" ht="12.8">
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" s="1" customFormat="1" ht="22.35">
-      <c r="A216" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="217" s="1" customFormat="1" ht="12.8"/>
-    <row r="218" s="1" customFormat="1" ht="12.8">
-      <c r="H218" s="1">
-        <v>26</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="J218" s="10" t="s">
+    <row r="231" ht="12.8">
+      <c r="B231" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J231" s="4"/>
+    </row>
+    <row r="232" ht="12.8">
+      <c r="A232" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K218" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="219" s="1" customFormat="1" ht="32.8">
-      <c r="H219" s="1">
-        <v>27</v>
-      </c>
-      <c r="I219" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="J219" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="K219" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="220" s="1" customFormat="1" ht="22.35">
-      <c r="H220" s="1">
-        <v>28</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J220" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="K220" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="221" s="1" customFormat="1" ht="64.15">
-      <c r="H221" s="1">
-        <v>29</v>
-      </c>
-      <c r="I221" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="J221" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="K221" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="222" s="1" customFormat="1" ht="32.8">
-      <c r="H222" s="1">
-        <v>30</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="K222" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="223" s="1" customFormat="1" ht="12.8">
-      <c r="H223" s="1">
-        <v>31</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K223" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="224" s="1" customFormat="1" ht="12.8">
-      <c r="H224" s="1">
-        <v>32</v>
-      </c>
-      <c r="I224" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K224" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="225" s="1" customFormat="1" ht="22.35">
-      <c r="H225" s="1">
-        <v>33</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K225" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="226" ht="12.8">
-      <c r="H226" s="1">
-        <v>34</v>
-      </c>
-      <c r="I226" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K226" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="227" ht="12.8">
-      <c r="B227" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K227" s="1"/>
-    </row>
-    <row r="228" ht="15.65" customHeight="1"/>
-    <row r="229" ht="15.65" customHeight="1"/>
-    <row r="230" ht="15.65" customHeight="1"/>
-    <row r="231" ht="12.8">
-      <c r="A231" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="J232" s="4"/>
     </row>
     <row r="233" ht="12.8">
       <c r="H233" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I233" s="4" t="s">
         <v>391</v>
@@ -7641,1432 +7496,1271 @@
         <v>392</v>
       </c>
       <c r="K233" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="1" ht="12.8">
+      <c r="B234" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="1" ht="12.8"/>
+    <row r="236" s="1" customFormat="1" ht="12.8">
+      <c r="A236" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="1" ht="23.85">
+      <c r="H237" s="1">
+        <v>93</v>
+      </c>
+      <c r="I237" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="K237" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" ht="32.8">
+      <c r="H238" s="1">
+        <v>94</v>
+      </c>
+      <c r="I238" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="K238" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" ht="32.8">
+      <c r="H239" s="1">
+        <v>95</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K239" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="1" ht="32.8">
+      <c r="H240" s="1">
+        <v>96</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K240" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" ht="12.8">
+      <c r="H241" s="1">
+        <v>97</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K241" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="1" ht="12.8">
+      <c r="H242" s="1">
+        <v>98</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="K242" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="1" ht="32.8">
+      <c r="H243" s="1">
+        <v>99</v>
+      </c>
+      <c r="I243" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="J243" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K243" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" ht="12.8">
+      <c r="I244" s="4"/>
+      <c r="J244" s="4"/>
+    </row>
+    <row r="245" s="1" customFormat="1" ht="12.8">
+      <c r="B245" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="1" ht="12.8">
+      <c r="A246" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="1" ht="23.85">
+      <c r="H247" s="1">
+        <v>100</v>
+      </c>
+      <c r="I247" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K247" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="248" s="1" customFormat="1" ht="43.25">
+      <c r="H248" s="1">
+        <v>101</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K248" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="1" ht="32.8">
+      <c r="H249" s="1">
+        <v>102</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K249" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" ht="22.35">
+      <c r="H250" s="1">
+        <v>103</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="J250" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="K250" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" ht="12.8">
+      <c r="H251" s="1">
+        <v>104</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="K251" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" ht="12.8">
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+    </row>
+    <row r="253" s="1" customFormat="1" ht="12.8">
+      <c r="B253" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" ht="12.8">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" s="1" customFormat="1" ht="12.8">
+      <c r="A255" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" ht="12.8">
+      <c r="H256" s="1">
+        <v>79</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" ht="12.8">
+      <c r="H257" s="1">
+        <v>80</v>
+      </c>
+      <c r="I257" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="K257" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="1" ht="43.25">
+      <c r="H258" s="1">
+        <v>81</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="K258" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="1" ht="22.35">
+      <c r="H259" s="1">
+        <v>82</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="K259" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="1" ht="43.25">
+      <c r="H260" s="1">
+        <v>83</v>
+      </c>
+      <c r="I260" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="K260" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" ht="12.8">
+      <c r="H261" s="1">
+        <v>84</v>
+      </c>
+      <c r="I261" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K261" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="262" ht="12.8">
+      <c r="I262" s="4"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" ht="12.8">
+      <c r="B263" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K263" s="1"/>
+    </row>
+    <row r="264" ht="12.8">
+      <c r="B264" s="4"/>
+      <c r="K264" s="1"/>
+    </row>
+    <row r="265" ht="12.8">
+      <c r="A265" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" ht="12.8">
+      <c r="H266" s="1">
+        <v>85</v>
+      </c>
+      <c r="I266" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J266" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="267" ht="22.35">
+      <c r="H267" s="1">
+        <v>86</v>
+      </c>
+      <c r="I267" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="268" ht="22.35">
+      <c r="H268" s="1">
+        <v>87</v>
+      </c>
+      <c r="I268" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="269" ht="43.25">
+      <c r="H269" s="1">
+        <v>88</v>
+      </c>
+      <c r="I269" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="270" ht="32.8">
+      <c r="H270" s="1">
+        <v>89</v>
+      </c>
+      <c r="I270" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="271" ht="22.35">
+      <c r="H271" s="1">
+        <v>90</v>
+      </c>
+      <c r="I271" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K271" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="234" ht="12.8">
-      <c r="B234" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H234" s="1">
-        <v>36</v>
-      </c>
-      <c r="I234" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J234" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="K234" t="s">
+    <row r="272" ht="22.35">
+      <c r="H272" s="1">
+        <v>91</v>
+      </c>
+      <c r="I272" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="K272" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="235" ht="12.8">
-      <c r="B235" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H235" s="1">
-        <v>37</v>
-      </c>
-      <c r="I235" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="K235" t="s">
+    <row r="273" ht="12.8">
+      <c r="H273" s="1">
+        <v>92</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K273" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="236" ht="12.8">
-      <c r="I236" s="4"/>
-      <c r="J236" s="10"/>
-    </row>
-    <row r="237" ht="12.8">
-      <c r="A237" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I237" s="4"/>
-      <c r="J237" s="10"/>
-    </row>
-    <row r="238" ht="22.35">
-      <c r="H238" s="1">
-        <v>38</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K238" t="s">
+    <row r="274" ht="12.8">
+      <c r="B274" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="276" ht="12.8">
+      <c r="A276" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" ht="12.8">
+      <c r="H277" s="1">
+        <v>74</v>
+      </c>
+      <c r="I277" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J277" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="K277" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="239" s="1" customFormat="1" ht="22.35">
-      <c r="H239" s="1">
-        <v>39</v>
-      </c>
-      <c r="I239" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="K239" t="s">
+    <row r="278" ht="32.8">
+      <c r="H278" s="1">
+        <v>75</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K278" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="240" ht="22.35">
-      <c r="H240" s="1">
-        <v>40</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K240" t="s">
+    <row r="279" ht="43.25">
+      <c r="H279" s="1">
+        <v>76</v>
+      </c>
+      <c r="I279" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="K279" s="1" t="s">
         <v>724</v>
-      </c>
-    </row>
-    <row r="241" ht="22.35">
-      <c r="H241" s="1">
-        <v>41</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="K241" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="242" ht="22.35">
-      <c r="H242" s="1">
-        <v>42</v>
-      </c>
-      <c r="I242" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="K242" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="243" ht="32.8">
-      <c r="H243" s="1">
-        <v>43</v>
-      </c>
-      <c r="I243" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K243" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="244" ht="12.8">
-      <c r="B244" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J244" s="4"/>
-    </row>
-    <row r="245" ht="12.8">
-      <c r="A245" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J245" s="4"/>
-    </row>
-    <row r="246" ht="12.8">
-      <c r="H246" s="1">
-        <v>44</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J246" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="K246" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="247" s="1" customFormat="1" ht="12.8">
-      <c r="B247" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="248" s="1" customFormat="1" ht="12.8"/>
-    <row r="249" s="1" customFormat="1" ht="12.8">
-      <c r="A249" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="250" s="1" customFormat="1" ht="23.85">
-      <c r="H250" s="1">
-        <v>93</v>
-      </c>
-      <c r="I250" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="J250" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="K250" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="251" s="1" customFormat="1" ht="32.8">
-      <c r="H251" s="1">
-        <v>94</v>
-      </c>
-      <c r="I251" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="K251" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="252" s="1" customFormat="1" ht="32.8">
-      <c r="H252" s="1">
-        <v>95</v>
-      </c>
-      <c r="I252" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="J252" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="K252" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="253" s="1" customFormat="1" ht="32.8">
-      <c r="H253" s="1">
-        <v>96</v>
-      </c>
-      <c r="I253" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="J253" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="K253" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="254" s="1" customFormat="1" ht="12.8">
-      <c r="H254" s="1">
-        <v>97</v>
-      </c>
-      <c r="I254" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J254" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K254" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="255" s="1" customFormat="1" ht="12.8">
-      <c r="H255" s="1">
-        <v>98</v>
-      </c>
-      <c r="I255" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="J255" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="K255" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="256" s="1" customFormat="1" ht="32.8">
-      <c r="H256" s="1">
-        <v>99</v>
-      </c>
-      <c r="I256" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="J256" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="K256" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="257" s="1" customFormat="1" ht="12.8">
-      <c r="I257" s="4"/>
-      <c r="J257" s="4"/>
-    </row>
-    <row r="258" s="1" customFormat="1" ht="12.8">
-      <c r="B258" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="259" s="1" customFormat="1" ht="12.8">
-      <c r="A259" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="260" s="1" customFormat="1" ht="23.85">
-      <c r="H260" s="1">
-        <v>100</v>
-      </c>
-      <c r="I260" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="J260" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="K260" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="261" s="1" customFormat="1" ht="43.25">
-      <c r="H261" s="1">
-        <v>101</v>
-      </c>
-      <c r="I261" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="J261" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="K261" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="262" s="1" customFormat="1" ht="32.8">
-      <c r="H262" s="1">
-        <v>102</v>
-      </c>
-      <c r="I262" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="J262" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="K262" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="263" s="1" customFormat="1" ht="22.35">
-      <c r="H263" s="1">
-        <v>103</v>
-      </c>
-      <c r="I263" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="J263" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="K263" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="264" s="1" customFormat="1" ht="12.8">
-      <c r="H264" s="1">
-        <v>104</v>
-      </c>
-      <c r="I264" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="J264" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="K264" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="265" s="1" customFormat="1" ht="12.8">
-      <c r="I265" s="4"/>
-      <c r="J265" s="4"/>
-    </row>
-    <row r="266" s="1" customFormat="1" ht="12.8">
-      <c r="B266" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="267" s="1" customFormat="1" ht="12.8">
-      <c r="B267" s="4"/>
-    </row>
-    <row r="268" s="1" customFormat="1" ht="12.8">
-      <c r="A268" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="269" s="1" customFormat="1" ht="12.8">
-      <c r="H269" s="1">
-        <v>79</v>
-      </c>
-      <c r="I269" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J269" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K269" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="270" s="1" customFormat="1" ht="12.8">
-      <c r="H270" s="1">
-        <v>80</v>
-      </c>
-      <c r="I270" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="K270" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="271" s="1" customFormat="1" ht="43.25">
-      <c r="H271" s="1">
-        <v>81</v>
-      </c>
-      <c r="I271" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="K271" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="272" s="1" customFormat="1" ht="22.35">
-      <c r="H272" s="1">
-        <v>82</v>
-      </c>
-      <c r="I272" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="J272" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="K272" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="273" s="1" customFormat="1" ht="43.25">
-      <c r="H273" s="1">
-        <v>83</v>
-      </c>
-      <c r="I273" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="K273" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="274" s="1" customFormat="1" ht="12.8">
-      <c r="H274" s="1">
-        <v>84</v>
-      </c>
-      <c r="I274" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="K274" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="275" ht="12.8">
-      <c r="I275" s="4"/>
-      <c r="J275" s="4"/>
-      <c r="K275" s="1"/>
-    </row>
-    <row r="276" ht="12.8">
-      <c r="B276" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" ht="12.8">
-      <c r="B277" s="4"/>
-      <c r="K277" s="1"/>
-    </row>
-    <row r="278" ht="12.8">
-      <c r="A278" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K278" s="1"/>
-    </row>
-    <row r="279" ht="12.8">
-      <c r="H279" s="1">
-        <v>85</v>
-      </c>
-      <c r="I279" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J279" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K279" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="280" ht="22.35">
       <c r="H280" s="1">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I280" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="281" ht="32.8">
+      <c r="H281" s="1">
+        <v>78</v>
+      </c>
+      <c r="I281" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="J280" s="4" t="s">
+      <c r="J281" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="K280" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="281" ht="22.35">
-      <c r="H281" s="1">
-        <v>87</v>
-      </c>
-      <c r="I281" s="4" t="s">
+      <c r="K281" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="282" ht="12.8">
+      <c r="I282" s="4"/>
+      <c r="J282" s="4"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" ht="12.8">
+      <c r="I283" s="4"/>
+      <c r="J283" s="4"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" s="1" customFormat="1" ht="12.8">
+      <c r="B284" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="285" s="1" customFormat="1" ht="12.8"/>
+    <row r="286" s="1" customFormat="1" ht="12.8">
+      <c r="A286" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="287" s="1" customFormat="1" ht="23.85">
+      <c r="H287" s="1">
+        <v>66</v>
+      </c>
+      <c r="I287" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="J281" s="4" t="s">
+      <c r="J287" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="K281" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="282" ht="43.25">
-      <c r="H282" s="1">
-        <v>88</v>
-      </c>
-      <c r="I282" s="4" t="s">
+      <c r="K287" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="288" s="1" customFormat="1" ht="22.35">
+      <c r="H288" s="1">
+        <v>67</v>
+      </c>
+      <c r="I288" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J282" s="4" t="s">
+      <c r="J288" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="K282" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="283" ht="32.8">
-      <c r="H283" s="1">
-        <v>89</v>
-      </c>
-      <c r="I283" s="4" t="s">
+      <c r="K288" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" ht="12.8">
+      <c r="H289" s="1">
+        <v>68</v>
+      </c>
+      <c r="I289" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="J283" s="4" t="s">
+      <c r="J289" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="K283" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="284" ht="22.35">
-      <c r="H284" s="1">
-        <v>90</v>
-      </c>
-      <c r="I284" s="4" t="s">
+      <c r="K289" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" ht="22.35">
+      <c r="H290" s="1">
+        <v>69</v>
+      </c>
+      <c r="I290" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="J284" s="4" t="s">
+      <c r="J290" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="K284" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="285" ht="22.35">
-      <c r="H285" s="1">
-        <v>91</v>
-      </c>
-      <c r="I285" s="4" t="s">
+      <c r="K290" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" ht="32.8">
+      <c r="H291" s="1">
+        <v>70</v>
+      </c>
+      <c r="I291" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="J285" s="4" t="s">
+      <c r="J291" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="K285" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="286" ht="12.8">
-      <c r="H286" s="1">
-        <v>92</v>
-      </c>
-      <c r="I286" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J286" s="4" t="s">
+      <c r="K291" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" ht="32.8">
+      <c r="H292" s="1">
+        <v>71</v>
+      </c>
+      <c r="I292" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="K286" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="287" ht="12.8">
-      <c r="B287" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K287" s="1"/>
-    </row>
-    <row r="289" ht="12.8">
-      <c r="A289" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K289" s="1"/>
-    </row>
-    <row r="290" ht="12.8">
-      <c r="H290" s="1">
-        <v>74</v>
-      </c>
-      <c r="I290" s="4" t="s">
+      <c r="J292" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="J290" s="10" t="s">
+      <c r="K292" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" ht="22.35">
+      <c r="H293" s="1">
+        <v>72</v>
+      </c>
+      <c r="I293" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="K290" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="291" ht="32.8">
-      <c r="H291" s="1">
-        <v>75</v>
-      </c>
-      <c r="I291" s="4" t="s">
+      <c r="J293" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="J291" s="4" t="s">
+      <c r="K293" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" ht="22.35">
+      <c r="H294" s="1">
+        <v>73</v>
+      </c>
+      <c r="I294" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="K291" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="292" ht="43.25">
-      <c r="H292" s="1">
-        <v>76</v>
-      </c>
-      <c r="I292" s="4" t="s">
+      <c r="J294" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="J292" s="4" t="s">
+      <c r="K294" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" ht="12.8">
+      <c r="B295" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" ht="12.8">
+      <c r="A296" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" ht="12.8">
+      <c r="H297" s="1">
+        <v>60</v>
+      </c>
+      <c r="I297" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="K292" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="293" ht="22.35">
-      <c r="H293" s="1">
-        <v>77</v>
-      </c>
-      <c r="I293" s="4" t="s">
+      <c r="J297" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="J293" s="4" t="s">
+      <c r="K297" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" ht="43.25">
+      <c r="H298" s="1">
+        <v>61</v>
+      </c>
+      <c r="I298" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="K293" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="294" ht="32.8">
-      <c r="H294" s="1">
-        <v>78</v>
-      </c>
-      <c r="I294" s="4" t="s">
+      <c r="J298" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="J294" s="4" t="s">
+      <c r="K298" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" ht="22.35">
+      <c r="H299" s="1">
+        <v>62</v>
+      </c>
+      <c r="I299" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="K294" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="295" ht="12.8">
-      <c r="I295" s="4"/>
-      <c r="J295" s="4"/>
-      <c r="K295" s="1"/>
-    </row>
-    <row r="296" ht="12.8">
-      <c r="I296" s="4"/>
-      <c r="J296" s="4"/>
-      <c r="K296" s="1"/>
-    </row>
-    <row r="297" s="1" customFormat="1" ht="12.8">
-      <c r="B297" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="298" s="1" customFormat="1" ht="12.8"/>
-    <row r="299" s="1" customFormat="1" ht="12.8">
-      <c r="A299" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="300" s="1" customFormat="1" ht="23.85">
+      <c r="J299" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="K299" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="1" ht="22.35">
       <c r="H300" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I300" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="J300" s="10" t="s">
         <v>470</v>
       </c>
+      <c r="J300" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="K300" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
     </row>
     <row r="301" s="1" customFormat="1" ht="22.35">
       <c r="H301" s="1">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I301" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K301" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="302" ht="32.8">
+      <c r="H302" s="1">
+        <v>65</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="303" ht="12.8">
+      <c r="B303" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K303" s="1"/>
+    </row>
+    <row r="304" s="1" customFormat="1" ht="12.8"/>
+    <row r="305" s="1" customFormat="1" ht="12.8"/>
+    <row r="306" s="1" customFormat="1" ht="12.8">
+      <c r="A306" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" ht="23.85">
+      <c r="H307" s="1">
+        <v>53</v>
+      </c>
+      <c r="I307" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J307" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="K307" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" ht="23.85">
+      <c r="H308" s="1">
+        <v>54</v>
+      </c>
+      <c r="I308" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="J308" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="K308" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" ht="23.85">
+      <c r="H309" s="1">
+        <v>55</v>
+      </c>
+      <c r="I309" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="J309" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="K309" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" ht="23.85">
+      <c r="H310" s="1">
+        <v>56</v>
+      </c>
+      <c r="I310" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J310" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="K310" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" ht="12.8">
+      <c r="H311" s="1">
+        <v>57</v>
+      </c>
+      <c r="I311" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J311" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K311" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" ht="35.05">
+      <c r="H312" s="1">
+        <v>58</v>
+      </c>
+      <c r="I312" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="J312" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K312" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="313" ht="12.8">
+      <c r="H313" s="1">
+        <v>59</v>
+      </c>
+      <c r="I313" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J313" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="314" ht="12.8">
+      <c r="B314" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K314" s="1"/>
+    </row>
+    <row r="316" s="1" customFormat="1" ht="12.8"/>
+    <row r="317" s="1" customFormat="1" ht="12.8"/>
+    <row r="318" s="1" customFormat="1" ht="12.8">
+      <c r="A318" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" s="1" customFormat="1" ht="12.8">
+      <c r="H319" s="1">
+        <v>45</v>
+      </c>
+      <c r="I319" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="J319" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K319" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="320" s="1" customFormat="1" ht="22.35">
+      <c r="H320" s="1">
+        <v>46</v>
+      </c>
+      <c r="I320" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="J320" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K320" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" ht="32.8">
+      <c r="H321" s="1">
+        <v>50</v>
+      </c>
+      <c r="I321" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J321" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K321" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" ht="35.05">
+      <c r="H322" s="1">
+        <v>47</v>
+      </c>
+      <c r="I322" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J322" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K322" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" ht="43.25">
+      <c r="H323" s="1">
+        <v>48</v>
+      </c>
+      <c r="I323" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J323" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K323" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="324" ht="22.35">
+      <c r="H324" s="1">
+        <v>49</v>
+      </c>
+      <c r="I324" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="325" ht="12.8">
+      <c r="B325" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K325" s="1"/>
+    </row>
+    <row r="326" s="1" customFormat="1" ht="12.8"/>
+    <row r="327" s="1" customFormat="1" ht="12.8"/>
+    <row r="328" s="1" customFormat="1" ht="12.8">
+      <c r="A328" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="329" s="1" customFormat="1" ht="22.35">
+      <c r="H329" s="1">
+        <v>1</v>
+      </c>
+      <c r="I329" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K329" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="330" s="1" customFormat="1" ht="22.35">
+      <c r="H330" s="1">
+        <v>2</v>
+      </c>
+      <c r="I330" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J330" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K330" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="331" s="1" customFormat="1" ht="32.8">
+      <c r="H331" s="1">
+        <v>5</v>
+      </c>
+      <c r="I331" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K331" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="332" s="1" customFormat="1" ht="43.25">
+      <c r="H332" s="1">
+        <v>6</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K332" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="333" s="1" customFormat="1" ht="43.25">
+      <c r="H333" s="1">
+        <v>212</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="J333" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="K333" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="334" s="1" customFormat="1" ht="22.35">
+      <c r="H334" s="1">
+        <v>52</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K334" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="1" ht="74.6">
+      <c r="H335" s="1">
+        <v>17</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K335" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="336" ht="12.8">
+      <c r="H336" s="1">
+        <v>7</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J336" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="337" ht="12.8">
+      <c r="B337" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K337" s="1"/>
+    </row>
+    <row r="339" ht="12.8">
+      <c r="A339" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="340" ht="12.8">
+      <c r="D340" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="341" ht="22.35">
+      <c r="H341" s="1">
+        <v>8</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K341" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="302" s="1" customFormat="1" ht="12.8">
-      <c r="H302" s="1">
-        <v>68</v>
-      </c>
-      <c r="I302" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="J302" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="K302" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="303" s="1" customFormat="1" ht="22.35">
-      <c r="H303" s="1">
-        <v>69</v>
-      </c>
-      <c r="I303" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="J303" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K303" t="s">
+    <row r="342" ht="43.25">
+      <c r="H342" s="1">
+        <v>9</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="K342" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="304" s="1" customFormat="1" ht="32.8">
-      <c r="H304" s="1">
-        <v>70</v>
-      </c>
-      <c r="I304" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="J304" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="K304" t="s">
+    <row r="343" ht="22.35">
+      <c r="B343" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H343" s="1">
+        <v>10</v>
+      </c>
+      <c r="I343" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="K343" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="305" s="1" customFormat="1" ht="32.8">
-      <c r="H305" s="1">
-        <v>71</v>
-      </c>
-      <c r="I305" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J305" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="K305" t="s">
+    <row r="346" ht="12.8">
+      <c r="A346" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H346" s="1">
+        <v>11</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K346" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="306" s="1" customFormat="1" ht="22.35">
-      <c r="H306" s="1">
-        <v>72</v>
-      </c>
-      <c r="I306" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="J306" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="K306" t="s">
+    <row r="347" ht="12.8">
+      <c r="B347" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H347" s="1">
+        <v>12</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K347" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="307" s="1" customFormat="1" ht="22.35">
-      <c r="H307" s="1">
-        <v>73</v>
-      </c>
-      <c r="I307" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="J307" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="K307" t="s">
+    <row r="348" ht="12.8">
+      <c r="B348" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H348" s="1">
+        <v>13</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K348" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="308" s="1" customFormat="1" ht="12.8">
-      <c r="B308" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="309" s="1" customFormat="1" ht="12.8">
-      <c r="A309" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="310" s="1" customFormat="1" ht="12.8">
-      <c r="H310" s="1">
-        <v>60</v>
-      </c>
-      <c r="I310" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="K310" t="s">
+    <row r="349" ht="12.8">
+      <c r="B349" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H349" s="1">
+        <v>14</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K349" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="311" s="1" customFormat="1" ht="43.25">
-      <c r="H311" s="1">
-        <v>61</v>
-      </c>
-      <c r="I311" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="J311" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="K311" t="s">
+    <row r="350" ht="12.8">
+      <c r="B350" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="354" ht="12.8">
+      <c r="A354" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H354" s="1">
+        <v>15</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K354" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="312" s="1" customFormat="1" ht="22.35">
-      <c r="H312" s="1">
-        <v>62</v>
-      </c>
-      <c r="I312" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="J312" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K312" t="s">
+    <row r="355" ht="12.8">
+      <c r="B355" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="358" ht="12.8">
+      <c r="A358" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="359" ht="12.8">
+      <c r="H359" s="1">
+        <v>16</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K359" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="313" s="1" customFormat="1" ht="22.35">
-      <c r="H313" s="1">
-        <v>63</v>
-      </c>
-      <c r="I313" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J313" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="K313" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="314" s="1" customFormat="1" ht="22.35">
-      <c r="H314" s="1">
-        <v>64</v>
-      </c>
-      <c r="I314" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="J314" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="K314" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="315" ht="32.8">
-      <c r="H315" s="1">
-        <v>65</v>
-      </c>
-      <c r="I315" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="J315" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="K315" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="316" ht="12.8">
-      <c r="B316" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K316" s="1"/>
-    </row>
-    <row r="317" s="1" customFormat="1" ht="12.8"/>
-    <row r="318" s="1" customFormat="1" ht="12.8"/>
-    <row r="319" s="1" customFormat="1" ht="12.8">
-      <c r="A319" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="320" s="1" customFormat="1" ht="23.85">
-      <c r="H320" s="1">
-        <v>53</v>
-      </c>
-      <c r="I320" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="J320" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="K320" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="321" s="1" customFormat="1" ht="23.85">
-      <c r="H321" s="1">
-        <v>54</v>
-      </c>
-      <c r="I321" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="J321" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="K321" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="1" ht="23.85">
-      <c r="H322" s="1">
-        <v>55</v>
-      </c>
-      <c r="I322" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="J322" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="K322" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="323" s="1" customFormat="1" ht="23.85">
-      <c r="H323" s="1">
-        <v>56</v>
-      </c>
-      <c r="I323" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="J323" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="K323" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="324" s="1" customFormat="1" ht="12.8">
-      <c r="H324" s="1">
-        <v>57</v>
-      </c>
-      <c r="I324" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J324" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K324" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="325" s="1" customFormat="1" ht="35.05">
-      <c r="H325" s="1">
-        <v>58</v>
-      </c>
-      <c r="I325" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="J325" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="K325" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="326" ht="12.8">
-      <c r="H326" s="1">
-        <v>59</v>
-      </c>
-      <c r="I326" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J326" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K326" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="327" ht="12.8">
-      <c r="B327" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K327" s="1"/>
-    </row>
-    <row r="329" s="1" customFormat="1" ht="12.8"/>
-    <row r="330" s="1" customFormat="1" ht="12.8"/>
-    <row r="331" s="1" customFormat="1" ht="12.8">
-      <c r="A331" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="332" s="1" customFormat="1" ht="12.8">
-      <c r="H332" s="1">
-        <v>45</v>
-      </c>
-      <c r="I332" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="J332" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="K332" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="333" s="1" customFormat="1" ht="22.35">
-      <c r="H333" s="1">
-        <v>46</v>
-      </c>
-      <c r="I333" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="J333" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="K333" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="334" s="1" customFormat="1" ht="32.8">
-      <c r="H334" s="1">
-        <v>50</v>
-      </c>
-      <c r="I334" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="J334" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="K334" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="335" s="1" customFormat="1" ht="35.05">
-      <c r="H335" s="1">
-        <v>47</v>
-      </c>
-      <c r="I335" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="J335" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="K335" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="336" s="1" customFormat="1" ht="43.25">
-      <c r="H336" s="1">
-        <v>48</v>
-      </c>
-      <c r="I336" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="J336" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="K336" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="337" ht="22.35">
-      <c r="H337" s="1">
-        <v>49</v>
-      </c>
-      <c r="I337" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="J337" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="K337" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="338" ht="12.8">
-      <c r="B338" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K338" s="1"/>
-    </row>
-    <row r="339" s="1" customFormat="1" ht="12.8"/>
-    <row r="340" s="1" customFormat="1" ht="12.8"/>
-    <row r="341" s="1" customFormat="1" ht="12.8">
-      <c r="A341" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="342" s="1" customFormat="1" ht="22.35">
-      <c r="H342" s="1">
-        <v>1</v>
-      </c>
-      <c r="I342" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="J342" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="K342" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="343" s="1" customFormat="1" ht="22.35">
-      <c r="H343" s="1">
-        <v>2</v>
-      </c>
-      <c r="I343" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="J343" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="K343" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="344" s="1" customFormat="1" ht="32.8">
-      <c r="H344" s="1">
-        <v>5</v>
-      </c>
-      <c r="I344" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="J344" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="K344" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="345" s="1" customFormat="1" ht="43.25">
-      <c r="H345" s="1">
-        <v>6</v>
-      </c>
-      <c r="I345" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="J345" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K345" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="346" s="1" customFormat="1" ht="43.25">
-      <c r="H346" s="1">
-        <v>212</v>
-      </c>
-      <c r="I346" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="J346" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="K346" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="347" s="1" customFormat="1" ht="22.35">
-      <c r="H347" s="1">
-        <v>52</v>
-      </c>
-      <c r="I347" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="J347" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="K347" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="348" s="1" customFormat="1" ht="74.6">
-      <c r="H348" s="1">
-        <v>17</v>
-      </c>
-      <c r="I348" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="J348" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="K348" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="349" ht="12.8">
-      <c r="H349" s="1">
-        <v>7</v>
-      </c>
-      <c r="I349" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J349" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K349" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="350" ht="12.8">
-      <c r="B350" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K350" s="1"/>
-    </row>
-    <row r="352" ht="12.8">
-      <c r="A352" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="353" ht="12.8">
-      <c r="D353" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="354" ht="22.35">
-      <c r="H354" s="1">
-        <v>8</v>
-      </c>
-      <c r="I354" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="J354" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="K354" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="355" ht="43.25">
-      <c r="H355" s="1">
-        <v>9</v>
-      </c>
-      <c r="I355" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="J355" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="K355" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="356" ht="22.35">
-      <c r="B356" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H356" s="1">
-        <v>10</v>
-      </c>
-      <c r="I356" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="J356" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="K356" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="359" ht="12.8">
-      <c r="A359" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H359" s="1">
-        <v>11</v>
-      </c>
-      <c r="I359" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="J359" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="K359" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="360" ht="12.8">
       <c r="B360" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H360" s="1">
-        <v>12</v>
-      </c>
-      <c r="I360" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="J360" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="K360" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="361" ht="12.8">
-      <c r="B361" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H361" s="1">
-        <v>13</v>
-      </c>
-      <c r="I361" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J361" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="K361" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="362" ht="12.8">
-      <c r="B362" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H362" s="1">
-        <v>14</v>
-      </c>
-      <c r="I362" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J362" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="K362" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="363" ht="12.8">
-      <c r="B363" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="367" ht="12.8">
-      <c r="A367" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H367" s="1">
-        <v>15</v>
-      </c>
-      <c r="I367" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="J367" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="K367" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="368" ht="12.8">
-      <c r="B368" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="371" ht="12.8">
-      <c r="A371" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="372" ht="12.8">
-      <c r="H372" s="1">
-        <v>16</v>
-      </c>
-      <c r="I372" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J372" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K372" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="373" ht="12.8">
-      <c r="B373" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
